--- a/biology/Botanique/Liste_des_espèces_du_genre_Begonia/Liste_des_espèces_du_genre_Begonia.xlsx
+++ b/biology/Botanique/Liste_des_espèces_du_genre_Begonia/Liste_des_espèces_du_genre_Begonia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Begonia</t>
+          <t>Liste_des_espèces_du_genre_Begonia</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le genre Begonia, famille des Begoniaceae, comprend plus de 1500 espèces  botaniques (en mai 2018 on en comptait 1870[1]) auxquelles il convient d'ajouter les hybrides naturels.
+Le genre Begonia, famille des Begoniaceae, comprend plus de 1500 espèces  botaniques (en mai 2018 on en comptait 1870) auxquelles il convient d'ajouter les hybrides naturels.
 Depuis plusieurs siècles, d'abord en Europe, puis en Amérique du Nord et ailleurs, de nombreux bégonias sont cultivés et croisés par les horticulteurs. C'est donc à la suite d'innombrables essais qu'ont été obtenus les nombreux cultivars répertoriés, collectionnés ou commercialisés dans les jardineries du monde entier.
 Pour une classification sur des critères d'horticulture, voir la Catégorie:Bégonia par groupe horticole.
 Pour une classification scientifique par sections, voir la Catégorie:Espèce de Begonia par section.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Begonia</t>
+          <t>Liste_des_espèces_du_genre_Begonia</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,11 +527,13 @@
           <t>Variabilité des bégonias</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les bégonias s'hybrident avec facilité dans la nature, par conséquent il est difficile de les identifier les uns des autres uniquement sur des critères morphologiques. Au XXIe siècle, on s'appuie également sur des analyses d'ADN et des expérimentations pour déterminer s'il s'agit d'espèces à part entière ou bien d'hybrides[2]. 
-Par conséquent le nombre d'espèces valides dans le genre Begonia évolue encore constamment. Soit au gré des découvertes de nouveaux spécimens types au cours des expéditions de terrain, soit à la faveur des progrès de la recherche. Les botanistes peuvent désormais plus facilement repérer des espèces distinctes là où leurs prédécesseurs n'en avaient décrit qu'une seule, ou au contraire mettre en évidence une hybridation[2].
-Cette liste n'a donc qu'une validité provisoire, alors même que de nombreux bégonias encore inconnus sont en danger de disparition dans leur habitat naturel[2]. Citons par exemple le minuscule tubéreux Begonia elachista Moonlight &amp; Tebbitt, décrit en 2017 et en danger critique d'extinction selon l'UICN[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les bégonias s'hybrident avec facilité dans la nature, par conséquent il est difficile de les identifier les uns des autres uniquement sur des critères morphologiques. Au XXIe siècle, on s'appuie également sur des analyses d'ADN et des expérimentations pour déterminer s'il s'agit d'espèces à part entière ou bien d'hybrides. 
+Par conséquent le nombre d'espèces valides dans le genre Begonia évolue encore constamment. Soit au gré des découvertes de nouveaux spécimens types au cours des expéditions de terrain, soit à la faveur des progrès de la recherche. Les botanistes peuvent désormais plus facilement repérer des espèces distinctes là où leurs prédécesseurs n'en avaient décrit qu'une seule, ou au contraire mettre en évidence une hybridation.
+Cette liste n'a donc qu'une validité provisoire, alors même que de nombreux bégonias encore inconnus sont en danger de disparition dans leur habitat naturel. Citons par exemple le minuscule tubéreux Begonia elachista Moonlight &amp; Tebbitt, décrit en 2017 et en danger critique d'extinction selon l'UICN.
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_esp%C3%A8ces_du_genre_Begonia</t>
+          <t>Liste_des_espèces_du_genre_Begonia</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,9 +562,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (18 juillet 2018)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (18 juillet 2018) :
 Sommaire :
 Haut – A
 B
@@ -578,7 +594,43 @@
 X
 Y
 Z
-A
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Begonia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Begonia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			B. ampla
 			Begonia acetosa
 Begonia abbottii Urb. (1922)
@@ -710,7 +762,43 @@
 Begonia axillaris Ridl. (1906)
 Begonia axillipara Ridl. (1916)
 Begonia azuensis Urb. &amp; Ekman (1930)
-B
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Begonia</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Begonia</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Begonia baccata
 			Begonia banaoensis
 			Begonia boliviensis
@@ -832,7 +920,43 @@
 Begonia burmensis L.B.Sm. &amp; Wassh. (1983)
 Begonia burttii Kiew &amp; S.Julia (2007)
 Begonia buseyi Burt-Utley (1982)
-C
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Begonia</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Begonia</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Begonia capensis
 			Begonia cardiocarpa
 			Begonia cinnabarina
@@ -996,7 +1120,43 @@
 Begonia cylindrata L.B.Sm. &amp; B.G.Schub. (1939)
 Begonia cylindrica D.R.Liang &amp; X.X.Chen (1993)
 Begonia cymbalifera L.B.Sm. &amp; B.G.Schub. (1946)
-D
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Begonia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Begonia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Begonia decandra
 			Begonia decora
 			Begonia descoleana
@@ -1061,7 +1221,43 @@
 Begonia dugandiana L.B.Sm. &amp; B.G.Schub. (1946)
 Begonia duncan-thomasii Sosef (1991 publ. 1992)
 Begonia dux C.B.Clarke (1879)
-E
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Begonia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Begonia</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Begonia epipsila
 			B. elaeagnifolia
 Begonia eberhardtii Gagnep. (1919)
@@ -1106,7 +1302,43 @@
 Begonia exposita Phutthai &amp; M.Hughes (2017)
 Begonia extensa L.B.Sm. &amp; B.G.Schub. (1946)
 Begonia extranea L.B.Sm. &amp; B.G.Schub. (1939)
-F
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Begonia</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Begonia</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Begonia fenicis
 			Begonia fischeri
 			Begonia floccifera
@@ -1181,7 +1413,43 @@
 Begonia fusialata Warb. (1895)
 Begonia fusibulba C.DC. (1925)
 Begonia fusicarpa Irmsch. (1954)
-G
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Begonia</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Begonia</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Begonia goegoensis
 			Begonia glabra
 			Begonia grandis subsp. grandis
@@ -1255,7 +1523,43 @@
 Begonia gusilii Rimi (2015)
 Begonia gutierrezii Coyle (2010)
 Begonia guttapila D.C.Thomas &amp; Ardi (2009)
-H
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Begonia</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Begonia</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Begonia heracleifolia
 			B. hirsuta
 			B. hirtella
@@ -1341,7 +1645,43 @@
 Begonia hymenocarpa C.Y.Wu (1995)
 Begonia hymenophylla Gagnep. (1919)
 Begonia hymenophylloides Kingdon-Ward ex L.B.Sm. &amp; Wassh. (1984)
-I
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Begonia</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Begonia</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Begonia itaguassuensis
 Begonia ibitiocensis E.L.Jacques &amp; Mamede (2004)
 Begonia ignea (Klotzsch) Warsz. ex A.DC. (1864)
@@ -1385,7 +1725,43 @@
 Begonia itatinensis Irmsch. ex Brade (1944)
 Begonia itupavensis Brade (1953)
 Begonia iucunda Irmsch. (1961)
-J
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Begonia</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Begonia</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Begonia juliana
 Begonia jackiana M.Hughes (2015)
 Begonia jagorii Warb. (1904)
@@ -1415,7 +1791,43 @@
 Begonia juninensis Irmsch. (1949)
 Begonia juntasensis Kuntze (1898)
 Begonia jureiensis S.J.Gomes da Silva &amp; Mamede (2000)
-K
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Begonia</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Begonia</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 			Begonia karwinskyana
 Begonia kachak K.G.Pearce (2003)
 Begonia kachinensis Nob.Tanaka (2011)
@@ -1457,7 +1869,2677 @@
 Begonia kortsiae Ziesenh. (1971)
 Begonia kouytcheouensis Guillaumin (1925)
 Begonia krystofii Halda (2007)
-Begonia kuchingensis C.W.Lin &amp; C.I Peng (2017)</t>
+Begonia kuchingensis C.W.Lin &amp; C.I Peng (2017)
+Begonia kudoensis Girm. (2015)
+Begonia kuhlmannii Brade (1945)
+Begonia kui C.I Peng (2007)
+Begonia kunthiana Walp. (1852)
+Begonia kurakura Tawan, Ipor &amp; Meekiong (2009)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Begonia</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Begonia</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Begonia lubbersii
+Begonia labiensis (Sands) S.Julia (2015)
+Begonia labordei H.Lév. (1904)
+Begonia laccophora Sands (1996 publ. 1997)
+Begonia lacera Merr. (1915)
+Begonia lacerata Irmsch. (1939)
+Begonia lachaoensis Ziesenh. (1985)
+Begonia lacunosa Warb. (1895)
+Begonia laevis Ridl. (1917)
+Begonia lagunensis Elmer (1910)
+Begonia lailana Kiew &amp; Geri (2003)
+Begonia lambii Kiew (2001)
+Begonia lambirensis Kiew &amp; S.Julia (2015)
+Begonia laminariae Irmsch. (1951)
+Begonia lamriana Rimi (2015)
+Begonia lamxayana Souvann. (2016)
+Begonia lancangensis S.H.Huang (1999)
+Begonia lanceolata Vell. (1831)
+Begonia lancifolia Merr. (1915)
+Begonia lancilimba Merr. (1919)
+Begonia langbianensis Baker f. (1921)
+Begonia langsonensis C.I Peng &amp; C.W.Lin (2015)
+Begonia lansbergeae L.Linden &amp; Rodigas (1893)
+Begonia lanstyakii Brade (1943)
+Begonia lanternaria Irmsch. (1939)
+Begonia laporteifolia Warb. (1895)
+Begonia larorum L.B.Sm. &amp; Wassh. (1983)
+Begonia laruei M.Hughes (2009)
+Begonia lasioura D.C.Thomas &amp; Ardi (2011)
+Begonia latistipula Merr. (1915)
+Begonia lauterbachii Warb. (1900)
+Begonia lawii C.W.Lin &amp; C.I Peng (2017)
+Begonia laxa L.B.Sm. &amp; B.G.Schub. (1952)
+Begonia layang-layang Kiew (2001)
+Begonia lazat Kiew &amp; Reza Azmi (1998)
+Begonia lealii Brade (1954)
+Begonia leandrii Humbert ex Aymonin &amp; Bosser (1971 publ. 1973)
+Begonia leathermaniae O'Reilly &amp; Kareg. (1983)
+Begonia ledermannii Irmsch. (1913)
+Begonia lehmannii (Irmsch.) L.B.Sm. &amp; B.G.Schub. (1955)
+Begonia leipingensis D.K.Tian, Li H.Yang &amp; Chun Li (2016)
+Begonia leivae J.Sierra (1989)
+Begonia lempuyangensis Girm. (2009)
+Begonia lemurica Keraudren (1983)
+Begonia lengguanii Kiew (2005)
+Begonia leopoldinensis L.Kollmann (2009)
+Begonia lepida Blume (1827)
+Begonia lepidella Ridl. (1917)
+Begonia leprosa Hance (1883)
+Begonia leptantha C.B.Rob. (1911 publ. 1912)
+Begonia leptoptera H.Hara (1973)
+Begonia leptostyla Irmsch. (1949)
+Begonia letestui J.J.de Wilde (2002)
+Begonia letouzeyi Sosef (1994)
+Begonia leucochlora Sands (1996 publ. 1997)
+Begonia leuconeura Urb. &amp; Ekman (1930)
+Begonia leucosticta Warb. (1904)
+Begonia leucotricha Sands (1996 publ. 1997)
+Begonia leuserensis M.Hughes (2015)
+Begonia libanensis Urb. (1925)
+Begonia libera (L.B.Sm. &amp; B.G.Schub.) L.B.Sm. &amp; B.G.Schub. (1955)
+Begonia lichenora C.W.Lin &amp; C.I Peng (2017)
+Begonia liesneri Burt-Utley &amp; Utley (2012)
+Begonia lignescens Morton (1937)
+Begonia lilliputana M.Hughes (2015)
+Begonia limprichtii Irmsch. (1922)
+Begonia linauensis S.Julia (2015)
+Begonia lindleyana Walp. (1843)
+Begonia lindmanii Brade (1953)
+Begonia linearifolia J.Sierra (1991 publ. 1993)
+Begonia lineolata Brade (1958)
+Begonia lingiae S.Julia (2016)
+Begonia lipingensis Irmsch. (1927)
+Begonia lipolepis L.B.Sm. (1973)
+Begonia listada L.B.Sm. &amp; Wassh. (1981)
+Begonia lithophila C.Y.Wu (1995)
+Begonia littleri Merr. (1911 publ. 1912)
+Begonia liuyanii C.I Peng, S.M.Ku &amp; W.C.Leong (2005)
+Begonia lobbii (Hassk.) A.DC. (1864)
+Begonia locii C.I Peng, C.W.Lin &amp; H.Q.Nguyen (2015)
+Begonia loheri Merr. (1911 publ. 1912)
+Begonia lombokensis Girm. (2009)
+Begonia lomensis Britton &amp; P.Wilson (1923)
+Begonia longanensis C.Y.Wu (1997)
+Begonia longipetiolata Gilg (1904)
+Begonia longgangensis C.I Peng &amp; Yan Liu (2013)
+Begonia longialata K.Y.Guan &amp; D.K.Tian (2000)
+Begonia longibarbata Brade (1948)
+Begonia longibractea Merr. (1920 publ. 1921)
+Begonia longicarpa K.Y.Guan &amp; D.K.Tian (2000)
+Begonia longicaulis Ridl. (1917)
+Begonia longiciliata C.Y.Wu (1995)
+Begonia longifolia Blume (1823)
+Begonia longinoda Merr. (1911 publ. 1912)
+Begonia longipedunculata Golding &amp; Kareg. (1984)
+Begonia longirostris Benth. (1845)
+Begonia longiscapa Warb. (1904)
+Begonia longiseta Irmsch. (1953 publ. 1954)
+Begonia longistipula Merr. (1911 publ. 1912)
+Begonia longistyla Y.M.Shui &amp; W.H.Chen (2005)
+Begonia longivillosa A.DC. (1859)
+Begonia lopensis Sosef &amp; M.E.Leal (2002)
+Begonia lophoptera Rolfe (1914)
+Begonia loranthoides Hook.f. (1871)
+Begonia lossiae L.Kollmann (2008)
+Begonia louis-williamsii Burt-Utley (1982)
+Begonia lowiana King, J. (1902)
+Begonia lubbersii É.Morren (1883)
+Begonia lucidissima Golding &amp; Kareg. (1984)
+Begonia lucifuga Irmsch. (1949)
+Begonia lucychongiana S.Julia &amp; Kiew (2013)
+Begonia ludicra A.DC. (1859)
+Begonia ludwigii Irmsch. (1937)
+Begonia lugonis L.B.Sm. &amp; Wassh. (1986)
+Begonia lugrae Ardhaka &amp; Undaharta (2013)
+Begonia lukuana Y.C.Liu &amp; C.H.Ou (1982)
+Begonia lunaris E.L.Jacques (2008)
+Begonia lunatistyla Irmsch. (1953 publ. 1954)
+Begonia luochengensis S.M.Ku, C.I Peng &amp; Yan Liu (2004)
+Begonia lutea L.B.Sm. &amp; B.G.Schub. (1946)
+Begonia luxurians Scheidw. (1848)
+Begonia luzhaiensis T.C.Ku (1999)
+Begonia luzonensis Warb. (1904)
+Begonia lyallii A.DC. (1859)
+Begonia lyman-smithii Burt-Utley &amp; Utley (1987)
+Begonia lyniceorum Burt-Utley (1983)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Begonia</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Begonia</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Begonia maculata
+Begonia macduffieana L.B.Sm. &amp; B.G.Schub. (1985)
+Begonia macgregorii Merr. (1912)
+Begonia machrisiana L.B.Sm. &amp; B.G.Schub. (1961)
+Begonia macintyreana M.Hughes (2006)
+Begonia macra A.DC. (1859)
+Begonia macrocarpa Warb. (1895)
+Begonia macrotis Vis. (1858-59)
+Begonia macrotoma Irmsch. (1951)
+Begonia maculata Raddi (1820)
+Begonia macvaughii Burt-Utley &amp; Utley (2014)
+Begonia madaiensis Kiew (2001)
+Begonia madecassa Keraudren (1983)
+Begonia maestrensis Urb. (1925)
+Begonia magdalenae L.B.Sm. &amp; B.G.Schub. (1946)
+Begonia magdalenensis Brade (1945)
+Begonia magentifolia Kiew &amp; S.Julia (2013)
+Begonia magnicarpa C.W.Lin &amp; C.I Peng (2017)
+Begonia majungaensis Guillaumin (1928)
+Begonia makrinii C.V.Morton ex Burt-Utley &amp; Utley (2011)
+Begonia malabarica Lam. (1785)
+Begonia malachosticta Sands (1990)
+Begonia malindangensis Merr. (1911 publ. 1912)
+Begonia malipoensis S.H.Huang &amp; Y.M.Shui (1994 publ. 1995)
+Begonia malmquistiana Irmsch. (1913)
+Begonia mamutensis Sands (2001)
+Begonia mananjebensis Humbert (1972)
+Begonia mangorensis Humbert (1972)
+Begonia manhaoensis S.H.Huang &amp; Y.M.Shui (1999)
+Begonia manicata Brongn. (1842)
+Begonia manillensis A.DC. (1859)
+Begonia mannii Hook.f. (1864)
+Begonia manuselaensis Ardhaka &amp; Ardi (2016)
+Begonia maracayuensis Parodi (1878)
+Begonia mariae L.B.Sm. (1973)
+Begonia mariaensis Rimi &amp; Simun (2015)
+Begonia mariannensis Wassh. &amp; McClellan (1995)
+Begonia marinae Tebbitt (2014 publ. 2015)
+Begonia mariti Burt-Utley (1990)
+Begonia marnieri Keraudren (1983)
+Begonia marojejyensis Humbert (1955)
+Begonia martabanica A.DC. (1859)
+Begonia martinezii Burt-Utley &amp; Utley (2014)
+Begonia masarangensis Irmsch. (1913)
+Begonia mashanica D.Fang &amp; D.H.Qin (2004)
+Begonia masoalaensis M.Hughes (2011)
+Begonia masoniana Irmsch. ex Ziesenh. (1971)
+Begonia matangensis S.Julia &amp; Kiew (2015)
+Begonia matogrossensis L.B.Sm. ex S.F.Sm. &amp; Wassh. (1999)
+Begonia mattos-silvae L.B.Sm. ex S.F.Sm. &amp; Wassh. (1999)
+Begonia matudae Burt-Utley &amp; Utley (2011)
+Begonia maurandiae A.DC. (1859)
+Begonia maxwelliana King, J. (1902)
+Begonia maynensis A.DC. (1859)
+Begonia mazae Ziesenh. (1947)
+Begonia mbangaensis Sosef (1991 publ. 1992)
+Begonia mcphersonii Burt-Utley &amp; Utley (2012)
+Begonia mearnsii Merr. (1911 publ. 1912)
+Begonia media Merr. &amp; L.M.Perry (1943)
+Begonia medusae Linden (1861)
+Begonia megacarpa Merr. (1914)
+Begonia megalantha Merr. (1915)
+Begonia megalophyllaria C.Y.Wu (1995)
+Begonia megaptera A.DC. (1859)
+Begonia mekonggensis Girm. &amp; Wiriad. (2009)
+Begonia melanobullata C.I Peng &amp; C.W.Lin (2015)
+Begonia melanosticta Chong &amp; Guanih (2015)
+Begonia melikopia Kiew (2001)
+Begonia melinauensis S.Julia &amp; Kiew (2013)
+Begonia membranacea A.DC. (1859)
+Begonia mendumae M.Hughes (2006)
+Begonia menglianensis Y.Y.Qian (2001)
+Begonia mengtzeana Irmsch. (1939)
+Begonia mentewangensis Girm. (2015)
+Begonia meridensis A.DC. (1859)
+Begonia meriraiensis S.Julia &amp; Kiew (2009)
+Begonia merrilliana C.I Peng, Rubite, C.W.Lin &amp; K.F.Chung (2017)
+Begonia merrittii Merr. (1910)
+Begonia metallicolor C.W.Lin &amp; C.I Peng (2017)
+Begonia meyeri-johannis Engl. (1892)
+Begonia meysseliana Linden (1883)
+Begonia michoacana L.B.Sm. &amp; B.G.Schub. (1947)
+Begonia micranthera Griseb. (1874)
+Begonia microcarpa A.DC. (1864)
+Begonia microphylla (Klotzsch) A.DC. (1864)
+Begonia microptera Hook.f. (1857)
+Begonia microsperma Warb. (1895)
+Begonia mildbraedii Gilg (1913)
+Begonia militaris L.B.Sm. &amp; B.G.Schub. (1945)
+Begonia mindanaensis Warb. (1904)
+Begonia mindorensis Merr. (1911 publ. 1912)
+Begonia minicarpa H.Hara (1972)
+Begonia minjemensis Irmsch. (1913)
+Begonia minor Jacq. (1787)
+Begonia minuscula Aver. (2012)
+Begonia minuta Sosef (1991 publ. 1992)
+Begonia minutiflora Sands (2001)
+Begonia minutifolia N.Hallé (1972)
+Begonia miranda Irmsch. (1951)
+Begonia modestiflora Kurz (1871)
+Begonia molinana Burt-Utley (1984)
+Begonia molleri (C.DC.) Warb. (1894)
+Begonia mollicaulis Irmsch. (1957)
+Begonia mollis A.DC. (1864)
+Begonia monadelpha (Klotzsch) Ruiz &amp; Pav. ex A.DC. (1864)
+Begonia monantha Warb. (1905)
+Begonia moneta C.I Peng, Rimi &amp; C.W.Lin (2015)
+Begonia monicae Aymonin &amp; Bosser (1983)
+Begonia monophylla Pav. ex A.DC. (1859)
+Begonia montana (A.DC.) Warb. (1894)
+Begonia montaniformis C.I Peng, C.W.Lin &amp; H.Q.Nguyen (2015)
+Begonia monte-alenensis Sosef (2014)
+Begonia montis-bismarckii Warb. (1905)
+Begonia montis-elephantis J.J.de Wilde (2002)
+Begonia mooreana (Irmsch.) L.L.Forrest &amp; Hollingsw. (2003)
+Begonia morelii Irmsch. ex Kareg. (1975)
+Begonia morifolia T.T.Yu (1948)
+Begonia morii Burt-Utley (1982)
+Begonia morrisiorum Rekha Morris &amp; P.D.McMillan (2010)
+Begonia morsei Irmsch. (1939)
+Begonia moszkowskii Irmsch. (1913)
+Begonia motozintlensis Burt-Utley &amp; Utley (2014)
+Begonia moysesii Brade (1958)
+Begonia mucronistipula C.DC. (1919)
+Begonia muliensis T.T.Yu (1948)
+Begonia multangula Blume (1827)
+Begonia multibracteata Girm. (2009)
+Begonia multidentata Warb. (1905)
+Begonia multijugata M.Hughes (2009)
+Begonia multinervia Liebm. (1852)
+Begonia multistaminea Burt-Utley (1983)
+Begonia muricata Blume (1823)
+Begonia murina Craib (1928)
+Begonia murudensis Merr. (1928)
+Begonia murumensis S.Julia &amp; C.Y.Ling (2015)
+Begonia myanmarica C.I Peng &amp; Y.D.Kim (2017)
+Begonia mystacina L.B.Sm. &amp; Wassh. (1984)
+Begonia mysteriosa L.Kollmann &amp; A.P.Fontana (2008)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Begonia</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Begonia</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Begonia naumoniensis
+Begonia nagaensis Kiew &amp; S.Julia (2009)
+Begonia nahangensis Aver. &amp; H.Q.Nguyen (2012)
+Begonia nana L'Hér. (1788)
+Begonia nantoensis M.J.Lai &amp; N.J.Chung (1992)
+Begonia napoensis L.B.Sm. &amp; Wassh. (1986)
+Begonia natunaensis C.W.Lin &amp; C.I Peng (2014)
+Begonia naumoniensis Irmsch. (1913)
+Begonia neglecta A.DC. (1859)
+Begonia negrosensis Elmer (1910)
+Begonia nelumbiifolia Schltdl. &amp; Cham. (1830)
+Begonia nemoralis L.B.Sm. &amp; B.G.Schub. (1947)
+Begonia neocomensium A.DC. (1859)
+Begonia neoharlingii L.B.Sm. &amp; Wassh. (1985)
+Begonia neoperrieri Humbert ex Aymonin &amp; Bosser (1971 publ. 1973)
+Begonia neopurpurea L.B.Sm. &amp; Wassh. (1983)
+Begonia nepalensis (A.DC.) Warb. (1894)
+Begonia nephrophylla Undaharta &amp; Ardi (2016)
+Begonia nevadensis Dorr (1999)
+Begonia niahensis K.G.Pearce (2003)
+Begonia nigritarum Steud. (1821)
+Begonia ningmingensis D.Fang, Y.G.Wei &amp; C.I.Peng (2006)
+Begonia nivea Parish ex Kurz, J. (1873)
+Begonia nix C.W.Lin &amp; C.I Peng (2017)
+Begonia nobmanniae D.C.Thomas &amp; Ardi (2011)
+Begonia nossibea A.DC. (1859)
+Begonia nosymangabensis Scherber. &amp; Duruiss. (2017)
+Begonia notata Craib (1928)
+Begonia nothobaramensis Joffre (2015)
+Begonia notiophila Urb. (1930)
+Begonia novalombardiensis L.Kollmann (2006)
+Begonia novogranatae A.DC. (1864)
+Begonia novoguineensis Merr. &amp; L.M.Perry (1943)
+Begonia nubicola L.B.Sm. &amp; B.G.Schub. (1957)
+Begonia nuda Irmsch. (1953)
+Begonia nummulariifolia Putz. (1853)
+Begonia nurii Irmsch. (1929)
+Begonia nuwakotensis S.Rajbh. (2010)
+Begonia nyassensis Irmsch. (1961)
+Begonia nymphaeifolia T.T.Yu (1948)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Begonia</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Begonia</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Begonia obscura
+Begonia oaxacana A.DC. (1859)
+Begonia obdeltata Gregório &amp; E.L.Jacques (2014)
+Begonia oblanceolata Rusby (1920)
+Begonia obliqua L. (1753)
+Begonia obliquifolia S.H.Huang &amp; Y.M.Shui (1999)
+Begonia oblongata Merr. (1912)
+Begonia oblongifolia Stapf (1894)
+Begonia obovatistipula C.DC. (1914)
+Begonia obovoidea Craib (1930)
+Begonia obscura Brade (1957)
+Begonia obsolescens Irmsch. (1951)
+Begonia obtecticaulis Irmsch. (1949)
+Begonia obtusifolia Merr. (1919)
+Begonia occhionii Brade (1943)
+Begonia octopetala L'Hér. (1788)
+Begonia odeteiantha Handro (1969)
+Begonia oellgaardii L.B.Sm. &amp; Wassh. (1986)
+Begonia olbia Kerch. (1883)
+Begonia oligandra Merr. &amp; L.M.Perry (1943)
+Begonia oligantha Merr. (1915)
+Begonia oligophylla Blume ex Miq. (1856)
+Begonia olivacea Ardi (2015)
+Begonia oliveri L.B.Sm. &amp; B.G.Schub. (1955)
+Begonia olsoniae L.B.Sm. &amp; B.G.Schub. (1965)
+Begonia ophiogyna L.B.Sm. &amp; B.G.Schub. (1946)
+Begonia opuliflora Putz. (1854)
+Begonia orbiculata Jack (1821)
+Begonia orchidiflora Griff. (1848)
+Begonia oreodoxa Chun &amp; F.Chun (1995)
+Begonia oreophila Kiew (2005)
+Begonia organensis Brade (1944)
+Begonia ornithocarpa Standl. (1929)
+Begonia ornithophylla Irmsch. (1939)
+Begonia otophora Merr. &amp; L.M.Perry (1943)
+Begonia otophylla L.B.Sm. &amp; B.G.Schub. (1952)
+Begonia ovatifolia A.DC. (1859)
+Begonia oxyanthera Warb. (1895)
+Begonia oxyloba Welw. ex Hook.f. (1871)
+Begonia oxysperma A.DC. (1859)
+Begonia oxyura Merr. &amp; L.M.Perry (1943)
+Begonia ozotothrix D.C.Thomas (2009)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Begonia</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Begonia</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Begonia parviflora
+Begonia pachypoda L.Kollmann &amp; Peixoto (2013)
+Begonia pachyrhachis L.B.Sm. &amp; Wassh. (1983)
+Begonia padangensis Irmsch. (1953 publ. 1954)
+Begonia padawanensis C.W.Lin &amp; C.I Peng (2014)
+Begonia paganuccii Gregório &amp; J.A.S.Costa (2015)
+Begonia palawanensis Merr. (1911 publ. 1912)
+Begonia paleacea Kurz (1871)
+Begonia paleata A.DC. (1859)
+Begonia palmata D.Don (1825)
+Begonia palmeri S.Watson (1886)
+Begonia panamensis Burt-Utley &amp; Utley (2012)
+Begonia panayensis Merr. (1919)
+Begonia panchtharensis S.Rajbh. (2010)
+Begonia paniculata Parodi (1878)
+Begonia pantherina Putz. ex Linden (1862)
+Begonia paoana Kiew &amp; S.Julia (2007)
+Begonia papuana Warb. (1900)
+Begonia papulifolia S.Julia &amp; C.Y.Ling (2016)
+Begonia papyraptera Sands (1996 publ. 1997)
+Begonia paracauliflora Rimi, C.I Peng &amp; S.M.Ku (2015)
+Begonia paraguayensis Parodi (1878)
+Begonia paranaensis Brade (1944)
+Begonia parcifolia C.DC. (1919)
+Begonia parilis Irmsch. (1953)
+Begonia parishii C.B.Clarke (1879)
+Begonia parodiana L.B.Sm. &amp; B.G.Schub. (1941)
+Begonia parva Merr. (1911 publ. 1912)
+Begonia parviflora Poepp. &amp; Endl. (1835)
+Begonia parvifolia Schott (1827)
+Begonia parvilimba Merr. (1925)
+Begonia parvistipulata Irmsch. (1953)
+Begonia parvula H.Lév. &amp; Vaniot (1906)
+Begonia parvuliflora A.DC. (1859)
+Begonia pasamanensis M.Hughes (2009)
+Begonia pastoensis A.DC. (1859)
+Begonia paucilobata C.Y.Wu (1995)
+Begonia paulensis A.DC. (1859)
+Begonia paupercula King, J. (1902)
+Begonia pavonina Ridl. (1909)
+Begonia payung S.Julia &amp; Kiew (2009)
+Begonia pearcei Hook.f. (1865)
+Begonia pectennervia L.B.Sm. &amp; Wassh. (1986)
+Begonia pedata Liebm. (1852)
+Begonia pedatifida H.Lév. (1909)
+Begonia pediophylla Merr. &amp; L.M.Perry (1943)
+Begonia pedunculosa Wall. (1830)
+Begonia peekelii Irmsch. (1913)
+Begonia peii C.Y.Wu (1995)
+Begonia pelargoniiflora J.J.de Wilde &amp; J.C.Arends (1991 publ. 1992)
+Begonia peltata Otto &amp; A.Dietr. (1841)
+Begonia peltatifolia Li (1944)
+Begonia peltifolia Schott (1827)
+Begonia peltigera Irmsch. (1953)
+Begonia pendula Ridl. (1906)
+Begonia pengchingii Phutthai &amp; M.Hughes (2017)
+Begonia pengii S.M.Ku &amp; Yan Liu (2008)
+Begonia penrissenensis Kiew &amp; S.Julia (2007)
+Begonia pensilis L.B.Sm. &amp; Wassh. (1984)
+Begonia pentandra W.N.Takeuchi (2015)
+Begonia pentaphragmifolia Ridl. (1916)
+Begonia pentaphylla Walp. (1843)
+Begonia peperomioides Hook.f. (1871)
+Begonia per-dusenii Brade (1953)
+Begonia perakensis King, J. (1902)
+Begonia peridoticola Rimi, C.I Peng &amp; C.W.Lin (2015)
+Begonia peristegia Stapf (1901)
+Begonia pernambucensis Brade (1954)
+Begonia perpusilla A.DC. (1859)
+Begonia perrieri Bois (1915)
+Begonia perryae L.B.Sm. &amp; Wassh. (1983)
+Begonia peruibensis Handro (1979 publ. 1980)
+Begonia peruviana A.DC. (1859)
+Begonia petasitifolia Brade (1971)
+Begonia phamiana Kiew (2007)
+Begonia phantasma Tebbitt (2015)
+Begonia philodendroides Ziesenh. (1954)
+Begonia phoeniogramma Ridl. (1917)
+Begonia phrixophylla Blatt. &amp; McCann (1931)
+Begonia phuthoensis H.Q.Nguyen (2004)
+Begonia phutthaii M.Hughes (2017)
+Begonia physandra Merr. &amp; L.M.Perry (1943)
+Begonia pickelii Irmsch. (1949)
+Begonia picta Sm. (1806)
+Begonia picturata Yan Liu, S.M.Ku &amp; C.I Peng (2005)
+Begonia pierrei Gagnep. (1919)
+Begonia pilgeriana Irmsch. (1953)
+Begonia pilosa Jack (1822)
+Begonia pilosella Irmsch. (1949)
+Begonia pinetorum A.DC. (1859)
+Begonia pinglinensis C.I Peng (2005)
+Begonia pinheironis L.B.Sm. ex S.F.Sm. &amp; Wassh. (1999)
+Begonia pinnatifida Merr. &amp; L.M.Perry (1943)
+Begonia piresiana Handro (1964)
+Begonia piring Kiew &amp; S.Julia (2009)
+Begonia piurensis L.B.Sm. &amp; B.G.Schub. (1941)
+Begonia plantaginea L.B.Sm. &amp; B.G.Schub. (1945)
+Begonia platanifolia Schott (1827)
+Begonia platycarpa Y.M.Shui &amp; W.H.Chen (2005)
+Begonia platyphylla Merr. (1915)
+Begonia platyptera Urb. (1930)
+Begonia plebeja Liebm. (1852)
+Begonia pleioclada Irmsch. (1953 publ. 1954)
+Begonia pleiopetala A.DC. (1859)
+Begonia plieranensis S.Julia &amp; C.Y.Ling (2015)
+Begonia plumieri Kunth ex A.DC. (1864)
+Begonia pluvialis L.B.Sm. ex S.F.Sm. &amp; Wassh. (1999)
+Begonia poculifera Hook.f. (1871)
+Begonia poilanei Kiew (2007)
+Begonia polilloensis Tebbitt (2004 publ. 2005)
+Begonia polyandra Irmsch. (1953)
+Begonia polyclada C.I Peng, C.W.Lin &amp; Rubite (2017)
+Begonia polygonata Liebm. (1852)
+Begonia polygonifolia A.DC. (1861)
+Begonia polygonoides Hook.f. (1871)
+Begonia polypetala A.DC. (1878)
+Begonia polytricha C.Y.Wu (1995)
+Begonia popenoei Standl. (1930)
+Begonia porteana Van Geert (1882)
+Begonia porteri H.Lév. &amp; Vaniot (1910)
+Begonia portillana S.Watson (1887)
+Begonia postarii Kiew (1998)
+Begonia potamophila Gilg (1904)
+Begonia praerupta Irmsch. (1949)
+Begonia praetermissa Kiew (2005)
+Begonia prasinimarginata S.Julia (2015)
+Begonia preussii Warb. (1894)
+Begonia prieurii A.DC. (1859)
+Begonia princeae Gilg (1902)
+Begonia princeps (Klotzsch) A.DC. (1861)
+Begonia pringlei S.Watson (1891)
+Begonia prionophylla Irmsch. (1949)
+Begonia prionota D.C.Thomas &amp; Ardi (2011)
+Begonia prismatocarpa Hook. (1862)
+Begonia procridifolia Wall. ex A.DC. (1863)
+Begonia prolifera A.DC. (1859)
+Begonia prolixa Craib (1930)
+Begonia promethea Ridl. (1906)
+Begonia propinqua Ridl. (1906)
+Begonia pruinata (Klotzsch) A.DC. (1864)
+Begonia pryeriana Ridl. (1906)
+Begonia pseudodaedalea P.D.McMillan &amp; Rekha Morris (2010)
+Begonia pseudodaxinensis S.M.Ku, Yan Liu &amp; C.I Peng (2006)
+Begonia pseudodryadis C.Y.Wu (1995)
+Begonia pseudoglauca Irmsch. (1949)
+Begonia pseudolateralis Warb. (1904)
+Begonia pseudoleprosa C.I Peng, Yan Liu &amp; S.M.Ku (2006)
+Begonia pseudolubbersii Brade (1957)
+Begonia pseudomuricata Girm. (2009)
+Begonia pseudopeltata Burt-Utley &amp; Utley (2012)
+Begonia pseudopleiopetala Tebbitt (2014 publ. 2015)
+Begonia pseudoscottii Girm. (2015)
+Begonia pseudosubperfoliata Phutthai &amp; M.Hughes (2017)
+Begonia pseudoviola Gilg (1904)
+Begonia psilophylla Irmsch. (1951)
+Begonia pteridiformis Phutthai (2010)
+Begonia pteridoides Scherber. &amp; Duruiss. (2017)
+Begonia puberula Sosef (2014)
+Begonia pubescens Ridl. (1906)
+Begonia pudica L.B.Sm. &amp; B.G.Schub. (1950)
+Begonia pulchella Raddi (1820)
+Begonia pulcherrima Sosef (1991 publ. 1992)
+Begonia pulchra (Ridl.) L.L.Forrest &amp; Hollingsw. (2003)
+Begonia pulchrifolia D.K.Tian &amp; Ce H.Li (2015)
+Begonia pululahuana C.DC. (1908)
+Begonia pulvinifera C.I Peng &amp; Yan Liu (2006)
+Begonia pumila Craib (1930)
+Begonia pumilio Irmsch. (1929)
+Begonia punbatuensis Kiew (2001)
+Begonia punchak Kiew &amp; S.Julia (2007)
+Begonia purdieana A.DC. (1859)
+Begonia purpureofolia S.H.Huang &amp; Y.M.Shui (1994 publ. 1995)
+Begonia purpusii Houghton ex Ziesenh. (1960)
+Begonia puspitae Ardi (2009)
+Begonia pustulata Liebm. (1852)
+Begonia puttii Craib (1928)
+Begonia pycnantha Urb. &amp; Ekman (1930)
+Begonia pygmaea Irmsch. (1961)
+Begonia pyrrha Ridl. (1906)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Begonia</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Begonia</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Begonia quadrialata Warb. (1894)
+Begonia quaternata L.B.Sm. &amp; B.G.Schub. (1950)
+Begonia quercifolia A.DC. (1859)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Begonia</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Begonia</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Begonia rabilii Craib (1930)
+Begonia racemiflora Ortgies ex C.Chev. (1938)
+Begonia racemosa Jack (1822)
+Begonia rachmatii Tebbitt (2004 publ. 2005)
+Begonia radicans Vell. (1831)
+Begonia rafael-torresii Burt-Utley (1990)
+Begonia raimondii Irmsch. (1949)
+Begonia rajah Ridl. (1911)
+Begonia rambaiensis Kiew (2015)
+Begonia rambutan Rimi (2015)
+Begonia ramentacea Paxton (1846)
+Begonia ramlanii Rimi &amp; Handry (2015)
+Begonia ramosii Merr. (1911 publ. 1912)
+Begonia ramosissima Kiew &amp; S.Julia (2013)
+Begonia ranaiensis Girm. (2012)
+Begonia randiana Merr. &amp; L.M.Perry (1943)
+Begonia rantemarioensis D.C.Thomas &amp; Ardi (2011)
+Begonia raoensis M.Hughes (2015)
+Begonia ravenii C.I.Peng &amp; Y.K.Chen (1988)
+Begonia razafinjohanyi Aymonin &amp; Bosser (1983)
+Begonia reflexisquamosa C.Y.Wu (1995)
+Begonia reginula Kiew (2005)
+Begonia relicta L.B.Sm. &amp; B.G.Schub. (1945)
+Begonia renifolia Irmsch. (1913)
+Begonia reniformis Dryand. (1791)
+Begonia repens Lam. (1785)
+Begonia repenticaulis Irmsch. (1939)
+Begonia reptans Benth. (1840)
+Begonia retakensis (Sands) Joffre (2015)
+Begonia retinervia D.Fang, D.H.Qin &amp; C.I.Peng (2006)
+Begonia retusa O.E.Schulz (1911)
+Begonia rex Putz. (1857)
+Begonia rheifolia Irmsch. (1929)
+Begonia rhizocaulis (Klotzsch) A.DC. (1864)
+Begonia rhodantha Ridl. (1916)
+Begonia rhodochaeta S.Julia &amp; Kiew (2009)
+Begonia rhodochlamys L.B.Sm. &amp; B.G.Schub. (1945)
+Begonia rhodoneura S.Julia (2013)
+Begonia rhodophylla C.Y.Wu (1995)
+Begonia rhodotricha S.Julia &amp; C.Y.Ling (2015)
+Begonia rhoephila Ridl. (1917)
+Begonia rhombipetala S.Julia &amp; C.Y.Ling (2015)
+Begonia rhyacophila Kiew (2005)
+Begonia rhynchocarpa Y.M.Shui &amp; W.H.Chen (2005)
+Begonia rieckei Warb. (1891)
+Begonia riedelii A.DC. (1859)
+Begonia rigida (Klotzsch) Regel ex A.DC. (1864)
+Begonia rigidifolia Aver. (2012)
+Begonia rimarum Craib (1930)
+Begonia riparia Irmsch. (1961)
+Begonia rizalensis Merr. (1911 publ. 1912)
+Begonia robusta Blume (1827)
+Begonia rockii Irmsch. (1939)
+Begonia roezlii Regel (1876)
+Begonia rongjiangensis T.C.Ku (1995)
+Begonia rosacea Putz. (1857)
+Begonia roseibractea Ziesenh. (1983)
+Begonia roseopunctata Kiew (2015)
+Begonia rossmanniae A.DC. (1864)
+Begonia rostrata Welw. ex Hook.f. (1871)
+Begonia rotunda Vell. (1831)
+Begonia rotundibracteata Kiew (2015)
+Begonia rotundifolia Lam. (1785)
+Begonia rotundilimba S.H.Huang &amp; Y.M.Shui (1994 publ. 1995)
+Begonia roxburghii (Miq.) A.DC. (1864)
+Begonia rubella Buch.-Ham. ex D.Don (1825)
+Begonia rubida Ridl. (1906)
+Begonia rubiginosipes Irmsch. (1949)
+Begonia rubinea Hong Z.Li &amp; H.Ma (2005)
+Begonia rubiteae M.Hughes (2010)
+Begonia ruboides C.M.Hu (1995)
+Begonia rubricaulis Hook. (1844)
+Begonia rubriflora L.Kollmann (2011)
+Begonia rubrifolia Merr. (1919)
+Begonia rubrobracteolata S.Julia &amp; C.Y.Ling (2016)
+Begonia rubromarginata Gilg (1904)
+Begonia rubronervata De Wild. (1908)
+Begonia rubropilosa A.DC. (1859)
+Begonia rubropunctata S.H.Huang &amp; Y.M.Shui (1994 publ. 1995)
+Begonia rubrosetosa Aver. (2012)
+Begonia rubrotepala S.Julia (2016)
+Begonia rubrotincta L.B.Sm. &amp; B.G.Schub. (1963)
+Begonia rufa Thunb. (1817)
+Begonia rufipila Merr. (1911 publ. 1912)
+Begonia rufosericea Toledo (1946)
+Begonia rugosula Aver. (2012)
+Begonia ruhlandiana Irmsch. (1953)
+Begonia rumpiensis Kupicha (1978)
+Begonia rupium Irmsch. (1953)
+Begonia ruschii L.Kollmann (2003)
+Begonia russelliana L.B.Sm. ex S.F.Sm. &amp; Wassh. (1999)
+Begonia ruthiae S.Julia (2015)
+Begonia rutilans (Klotzsch) A.DC. (1864)
+Begonia rwandensis J.C.Arends (1991 publ. 1992)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Begonia</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Begonia</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Begonia sabahensis Kiew &amp; J.H.Tan (2004)
+Begonia sadirensis Kiew &amp; S.Julia (2016)
+Begonia sageaensis Wiriad. (2012)
+Begonia salaziensis (Gaudich.) Warb. (1894)
+Begonia salesopolensis S.J.Gomes da Silva &amp; Mamede (2000)
+Begonia salisburyana Irmsch. (1954)
+Begonia salomonensis Merr. &amp; L.M.Perry (1943)
+Begonia samarensis Merr. (1926)
+Begonia sambiranensis Humbert ex Aymonin &amp; Bosser (1971 publ. 1973)
+Begonia samhaensis M.Hughes &amp; A.G.Mill. (2002)
+Begonia sandalifolia C.B.Clarke (1879)
+Begonia sandsiana W.N.Takeuchi (2013)
+Begonia sandtii Houghton ex Ziesenh. (1969)
+Begonia sanguinea Raddi (1820)
+Begonia sanguineopilosa D.C.Thomas &amp; Ardi (2011)
+Begonia santarosensis Kuntze (1898)
+Begonia santos-limae Brade (1943)
+Begonia sarangica Kiew &amp; S.Julia (2009)
+Begonia sarasinorum Irmsch. (1913)
+Begonia sarawakensis Ridl. (1906)
+Begonia sarcocarpa Ridl. (1917)
+Begonia sarmentacea Brilmayer (1960)
+Begonia sarmentosa L.B.Sm. &amp; Wassh. (1983)
+Begonia sartorii Liebm. (1852)
+Begonia satrapis C.B.Clarke (1879)
+Begonia saxicola A.DC. (1859)
+Begonia saxifraga A.DC. (1859)
+Begonia saxifragifolia Craib (1930)
+Begonia scabrida A.DC. (1864)
+Begonia scapigera Hook.f. (1871)
+Begonia schaeferi Engl. (1921)
+Begonia scharffii Hook.f. (1888)
+Begonia schliebenii Irmsch. (1961)
+Begonia schlumbergeriana Lem. (1858)
+Begonia schulziana Urb. &amp; Ekman (1930)
+Begonia sciadiophora L.B.Sm. &amp; B.G.Schub. (1946)
+Begonia sciaphila Gilg ex Engl. (1921)
+Begonia scintillans Dunn (1920)
+Begonia scitifolia Irmsch. (1939)
+Begonia scorpiocaulis Moonlight &amp; Tebbitt (2017)
+Begonia scortechinii King, J. (1902)
+Begonia scottii Tebbitt (2005)
+Begonia scutifolia Hook.f. (1871)
+Begonia scutulum Hook.f. (1871)
+Begonia secunda L.B.Sm. &amp; Wassh. (1979)
+Begonia seemanniana A.DC. (1859)
+Begonia segregata L.B.Sm. &amp; B.G.Schub. (1960)
+Begonia semidigitata Brade (1945)
+Begonia semiovata Liebm. (1852)
+Begonia semiparietalis Yan Liu, S.M.Ku &amp; C.I Peng (2006)
+Begonia semongkatensis Girm. (2016)
+Begonia sendangensis Ardi (2013)
+Begonia serapatensis Kiew &amp; S.Julia (2007)
+Begonia serianensis C.W.Lin &amp; C.I Peng (2017)
+Begonia sericoneura Liebm. (1852)
+Begonia serotina A.DC. (1859)
+Begonia serpens Merr. (1919)
+Begonia serranegrae L.B.Sm. ex S.F.Sm. &amp; Wassh. (1999)
+Begonia serraticauda Merr. &amp; L.M.Perry (1943)
+Begonia serratipetala Irmsch. (1913)
+Begonia sessilifolia Hook.f. (1871)
+Begonia setiamensis S.Julia &amp; Kiew (2015)
+Begonia setifolia Irmsch. (1939)
+Begonia setulosa Bertol. (1840)
+Begonia setulosopeltata C.Y.Wu (1997)
+Begonia seychellensis Hemsl. (1916)
+Begonia sharpeana F.Muell. (1887)
+Begonia shilendrae Rekha Morris &amp; P.D.McMillan (2012)
+Begonia siamensis Gagnep. (1919)
+Begonia sibthorpioides Ridl. (1916)
+Begonia sibutensis Sands (1996 publ. 1997)
+Begonia siccacaudata J.Door. (2000)
+Begonia sikkimensis A.DC. (1859)
+Begonia silletensis (A.DC.) C.B.Clarke (1879)
+Begonia simolapensis Ardi (2015)
+Begonia simulans Merr. &amp; L.M.Perry (1943)
+Begonia simunii Rimi (2015)
+Begonia sinobrevicaulis T.C.Ku (1999)
+Begonia sinofloribunda Dorr (1999)
+Begonia sinovietnamica C.Y.Wu (1997)
+Begonia sinuata Wall. ex Meisn. (1836)
+Begonia siregarii Ardi &amp; D.C.Thomas (2014)
+Begonia sirukitii S.Julia &amp; C.Y.Ling (2015)
+Begonia sizemoreae Kiew (2004)
+Begonia skutchii Burt-Utley &amp; Utley (2014)
+Begonia sleumeri L.B.Sm. &amp; B.G.Schub. (1955)
+Begonia smilacina A.DC. (1859)
+Begonia smithiae Geddes (1928)
+Begonia smithiana T.T.Yu ex Irmsch. (1951)
+Begonia socia Craib (1930)
+Begonia socotrana Hook.f., Gard. Chron., n.s. (1881)
+Begonia sodiroi C.DC. (1908)
+Begonia sogerensis Ridl. (1914)
+Begonia solananthera A.DC. (1859)
+Begonia solimutata L.B.Sm. &amp; Wassh. (1990)
+Begonia solitudinis Brade (1958)
+Begonia soluta Craib (1930)
+Begonia somervillei Hemsl. (1896)
+Begonia sonderiana Irmsch. (1961)
+Begonia sonlaensis Aver. (2012)
+Begonia sootepensis Craib (1911)
+Begonia soror Irmsch. (1953)
+Begonia sosefiana J.J.de Wilde &amp; Valk. (2005)
+Begonia sousae Burt-Utley (1983)
+Begonia spadiciflora L.B.Sm. &amp; B.G.Schub. (1946)
+Begonia sparreana L.B.Sm. &amp; Wassh. (1979)
+Begonia sparsipila Baker (1873)
+Begonia speculum Moonlight &amp; Tebbitt (2017 publ. 2016)
+Begonia speluncae Ridl. (1906)
+Begonia sphenantheroides C.I Peng (2015)
+Begonia sphenocarpa Irmsch. (1913)
+Begonia spilotophylla F.Muell. (1876)
+Begonia spinibarbis Irmsch. (1957)
+Begonia squamipes Irmsch. (1953)
+Begonia squamulosa Hook.f. (1871)
+Begonia squarrosa Liebm. (1852)
+Begonia staudtii Gilg (1904)
+Begonia stellata Sosef (1991 publ. 1992)
+Begonia stenocardia L.B.Sm. &amp; B.G.Schub. (1946)
+Begonia stenogyna Sands (1996 publ. 1997)
+Begonia stenolepis L.B.Sm. &amp; R.C.Sm. (1971)
+Begonia stenophylla A.DC. (1859)
+Begonia stenotepala L.B.Sm. &amp; B.G.Schub. (1941)
+Begonia stevei M.Hughes (2006)
+Begonia steyermarkii L.B.Sm. &amp; B.G.Schub. (1955)
+Begonia stichochaete K.G.Pearce (2003)
+Begonia stictopoda (Miq.) Miq. ex A.DC. (1864)
+Begonia stigmosa Lindl. (1845)
+Begonia stilandra Merr. &amp; L.M.Perry (1943)
+Begonia stipularis Spreng. (1801)
+Begonia stolzii Irmsch. (1961)
+Begonia strachwitzii Warb. ex Irmsch. (1913)
+Begonia strictinervis Irmsch. (1913)
+Begonia strictipetiolaris Irmsch. (1913)
+Begonia strigillosa A.Dietr. (1851)
+Begonia strigosa (Warb.) L.L.Forrest &amp; Hollingsw. (2003)
+Begonia strigulosa (Hassk.) A.DC. (1864)
+Begonia subacida Irmsch. (1959)
+Begonia subacutata De Wild. (1908)
+Begonia subalpestris A.Chev. (1912)
+Begonia subcaudata Rusby ex L.B.Sm. &amp; Schub. (1944 publ. 1945)
+Begonia subciliata A.DC. (1859)
+Begonia subcoriacea C.I Peng, Yan Liu &amp; S.M.Ku (2008)
+Begonia subcostata Rusby (1920)
+Begonia subcyclophylla Irmsch. (1913)
+Begonia subelliptica Merr. &amp; L.M.Perry (1943)
+Begonia subhowii S.H.Huang (1999)
+Begonia subisensis K.G.Pearce (2003)
+Begonia sublobata Jack (1822)
+Begonia sublongipes Y.M.Shui (2004)
+Begonia subnummularifolia Merr. (1926)
+Begonia suboblata D.Fang &amp; D.H.Qin (2004)
+Begonia suborbiculata Merr. (1911 publ. 1912)
+Begonia subpeltata Wight (1852)
+Begonia subperfoliata Parish ex Kurz, J. (1873)
+Begonia subprostrata Merr. (1925)
+Begonia subscutata De Wild. (1908)
+Begonia subspinulosa Irmsch. (1949)
+Begonia subtruncata Merr. (1911 publ. 1912)
+Begonia subvillosa Klotzsch (1855)
+Begonia subviridis Craib (1930)
+Begonia sudjanae C.-A.Jansson (1963)
+Begonia suffrutescens Merr. &amp; L.M.Perry (1943)
+Begonia sukutensis Burt-Utley &amp; Utley (2012)
+Begonia sumbawaensis Girm. (2016)
+Begonia summoglabra T.T.Yu (1948)
+Begonia sunorchis C.Chev. (1938)
+Begonia superciliaris C.W.Lin &amp; C.I Peng (2017)
+Begonia suprafastigiata Irmsch. (1949)
+Begonia surculigera Kurz (1871)
+Begonia susaniae Sosef (1991 publ. 1992)
+Begonia sutherlandii Hook.f. (1868)
+Begonia sychnantha L.B.Sm. &amp; Wassh. (1984)
+Begonia sykakiengii Rubite, C.I Peng, C.W.Lin &amp; K.F.Chung (2017)
+Begonia sylvatica A.DC. (1864)
+Begonia sylvestris A.DC. (1859)
+Begonia symbeccarii L.L.Forrest &amp; Hollingsw. (2003)
+Begonia symbracteosa L.L.Forrest &amp; Hollingsw. (2003)
+Begonia symgeraniifolia L.L.Forrest &amp; Hollingsw. (2003)
+Begonia symhirta L.L.Forrest &amp; Hollingsw. (2003)
+Begonia sympapuana L.L.Forrest &amp; Hollingsw. (2003)
+Begonia symparvifolia L.L.Forrest &amp; Hollingsw. (2003)
+Begonia sympodialis Irmsch. (1953 publ. 1954)
+Begonia symsanguinea L.L.Forrest &amp; Hollingsw. (2003)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Begonia</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Begonia</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Begonia thelmae
+Begonia tacana Ziesenh. (1971)
+Begonia tafaensis Merr. &amp; L.M.Perry (1943)
+Begonia tafiensis Lillo (1919)
+Begonia tagbanua M.Hughes, C.I Peng &amp; Rubite (2015)
+Begonia ×taipeiensis C.I.Peng (2000)
+Begonia taiwaniana Hayata (1911)
+Begonia taliensis Gagnep. (1919)
+Begonia taligera S.Rajbh. (2010)
+Begonia tambelanensis (Irmsch.) Kiew (2003)
+Begonia tamdaoensis C.I Peng (2015)
+Begonia tampinica Burkill ex Irmsch. (1929)
+Begonia tanala Humbert (1972)
+Begonia tandangii C.I.Peng &amp; Rubite (2013)
+Begonia taniana Guanih (2015)
+Begonia tapatia Burt-Utley &amp; McVaugh (2001)
+Begonia taraw C.I Peng, Rubite &amp; M.Hughes (2015)
+Begonia tarokoensis M.J.Lai (1990)
+Begonia tatoniana R.Wilczek (1969)
+Begonia tawaensis Merr. (1929)
+Begonia tayabensis Merr. (1918)
+Begonia tayloriana Irmsch. (1961)
+Begonia tebiang S.Julia &amp; Kiew (2016)
+Begonia temburongensis Sands (1996 publ. 1997)
+Begonia tenasserimensis Phutthai &amp; M.Hughes (2017)
+Begonia tenera Dryand. (1791)
+Begonia tenericaulis Ridl. (1925)
+Begonia tengchiana C.I Peng &amp; Y.K.Chen (2005)
+Begonia tenuifolia Dryand. (1791)
+Begonia tenuis Burt-Utley &amp; Utley (2012)
+Begonia tenuissima S.Julia &amp; C.Y.Ling (2015)
+Begonia tepuiensis Moonlight &amp; Jara (2017)
+Begonia tessaricarpa C.B.Clarke (1879)
+Begonia tetralobata Y.M.Shui (2007)
+Begonia tetrandra Irmsch. (1949)
+Begonia teuscheri Linden ex André (1879)
+Begonia teysmanniana (Miq.) Miq. ex B.D.Jacks. (1895)
+Begonia thaipingensis King, J. (1902)
+Begonia thelmae L.B.Sm. &amp; Wassh. (1981)
+Begonia thiemei C.DC. (1895)
+Begonia thomeana C.DC. (1892)
+Begonia thomsonii A.DC. (1859)
+Begonia thyrsoidea Irmsch. (1949)
+Begonia tigrina Kiew (2005)
+Begonia tiliifolia C.DC. (1908)
+Begonia timorensis (Miq.) Golding &amp; Kareg. (1984)
+Begonia tindan Rimi &amp; Kinahim (2015)
+Begonia tinjanii S.Julia (2016)
+Begonia titoevangelistae Tandang &amp; Rubite (2016)
+Begonia tlapensis Burt-Utley &amp; Utley (2014)
+Begonia togashii Nob.Tanaka &amp; C.I Peng (2016)
+Begonia toledana L.B.Sm. &amp; B.G.Schub. (1946)
+Begonia toledoana Handro (1969)
+Begonia tomaniensis Rimi (2015)
+Begonia tomentosa Schott (1827)
+Begonia tonduzii C.DC. ex T.Durand &amp; Pittier (1896)
+Begonia tonkinensis Gagnep. (1919)
+Begonia torajana D.C.Thomas &amp; Ardi (2011)
+Begonia torricellensis Warb. (1905)
+Begonia trianae (A.DC.) Warb. (1894)
+Begonia triangularis Kiew &amp; C.Y.Ling (2016)
+Begonia tribenensis C.R.Rao (1969)
+Begonia tribracteata Irmsch. (1949)
+Begonia trichocarpa Dalzell (1851)
+Begonia trichochila Warb. (1904)
+Begonia trichopoda (Miq.) Miq. (1858)
+Begonia trichosepala C.DC. (1895)
+Begonia tricuspidata C.B.Clarke (1879)
+Begonia triginticollium Girm. (2012)
+Begonia trigonocarpa Ridl. (1917)
+Begonia triradiata C.B.Clarke (1879)
+Begonia trispathulata (A.DC.) Warb. (1894)
+Begonia tropaeolifolia A.DC. (1859)
+Begonia trujillensis L.B.Sm. (1973)
+Begonia trullifolia Guillaumin (1923)
+Begonia truncatiloba Irmsch. (1939)
+Begonia truncicola Sodiro ex C.DC. (1908)
+Begonia tsaii Irmsch. (1951)
+Begonia tsaratananensis Aymonin &amp; Bosser (1983)
+Begonia tsimihety Humbert (1972)
+Begonia tsoongii C.Y.Wu (1995)
+Begonia tuberculosa Girm. (2009)
+Begonia tumbezensis Irmsch. (1953)
+Begonia turbinata Ridl. (1917)
+Begonia turrialbae Burt-Utley &amp; Utley (1999)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Begonia</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Begonia</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>U</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Begonia undulata
+Begonia ubahribuensis S.Julia &amp; Kiew (2016)
+Begonia udisilvestris C.DC. (1919)
+Begonia ulmifolia Willd. (1805)
+Begonia umbellata Kunth (1825)
+Begonia umbraculifera Hook.f. (1896)
+Begonia umbraculifolia Y.Wan &amp; B.N.Chang (1987)
+Begonia umbratica S.Julia (2013)
+Begonia unduavensis Rusby (1920)
+Begonia undulata Schott (1827)
+Begonia uniflora S.Watson (1890)
+Begonia unilateralia Rusby (1934)
+Begonia urdanetensis Elmer (1915)
+Begonia urophylla Hook. (1855)
+Begonia ursina L.B.Sm. &amp; B.G.Schub. (1946)
+Begonia urticae L.f. (1782)
+Begonia uruapensis Sessé &amp; Moc. (1890)
+Begonia urubambensis Tebbitt (2016)
+Begonia urunensis Kiew (2016)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Begonia</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Begonia</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Begonia venosa
+Begonia vaccinioides Sands (2001)
+Begonia vagans Craib (1930)
+Begonia valdensium A.DC. (1859)
+Begonia vallicola Kiew (2005)
+Begonia valvata L.B.Sm. &amp; B.G.Schub. (1952)
+Begonia vanderentii Rossiti (2015)
+Begonia vandewateri Ridl. (1916)
+Begonia vankerckhovenii De Wild. (1915)
+Begonia vanoverberghii Merr. (1911 publ. 1912)
+Begonia vareschii Irmsch. (1959)
+Begonia variabilis Ridl. (1911)
+Begonia variegata Y.M.Shui &amp; W.H.Chen (2005)
+Begonia variifolia Y.M.Shui &amp; W.H.Chen (2005)
+Begonia varipeltata D.C.Thomas (2008)
+Begonia varistyle Irmsch. (1953)
+Begonia veitchii Hook.f. (1867)
+Begonia velata L.B.Sm. &amp; B.G.Schub. (1941)
+Begonia velloziana Walp. (1843)
+Begonia venosa Skan ex Hook.f. (1899)
+Begonia venusta King, J. (1902)
+Begonia verecunda M.Hughes (2009)
+Begonia vermeulenii D.C.Thomas (2011)
+Begonia verruculosa L.B.Sm. (1973)
+Begonia versicolor Irmsch. (1939)
+Begonia vespipropinqua Chong (2015)
+Begonia vestita C.DC. (1908)
+Begonia vicina Irmsch. (1953)
+Begonia vietnamensis H.Q.Nguyen &amp; C.I Peng (2010)
+Begonia villifolia Irmsch. (1951)
+Begonia vincentina O.E.Schulz (1911)
+Begonia violifolia A.DC. (1859)
+Begonia viridiflora A.DC. (1859)
+Begonia viscida Ziesenh. (1969)
+Begonia viscosa Aver. &amp; H.Q.Nguyen (2012)
+Begonia vitiensis A.C.Sm. (1936)
+Begonia vittariifolia N.Hallé (1972)
+Begonia vuijckii Koord. (1912)
+Begonia vulgaris S.Julia &amp; Kiew (2013)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Begonia</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Begonia</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+			Begonia wrightiana
+Begonia wadei Merr. &amp; Quisumb. (1932)
+Begonia wageneriana (Klotzsch) Hook. (1857)
+Begonia wakefieldii Gilg ex Engl. (1921)
+Begonia wallacei C.W.Lin &amp; C.I Peng (2017)
+Begonia wallichiana Lehm. (1850)
+Begonia walteriana Irmsch. (1964)
+Begonia wangii T.T.Yu (1948)
+Begonia warburgii K.Schum. &amp; Lauterb. (1900)
+Begonia wariana Irmsch. (1913)
+Begonia wasshauseniana L.Kollmann &amp; Peixoto (2012)
+Begonia wattii C.B.Clarke (1889)
+Begonia watuwilensis Girm. (2009)
+Begonia weberbaueri Irmsch. (1953)
+Begonia weberi Merr. (1911 publ. 1912)
+Begonia weberlingii Irmsch. ex Weberling (1963)
+Begonia weddeliana A.DC. (1859)
+Begonia weigallii Hemsl. (1896)
+Begonia wengeri C.E.C.Fisch. (1932)
+Begonia wenshanensis C.M.Hu (1995)
+Begonia wenzelii Merr. (1915)
+Begonia wilburii Burt-Utley &amp; Utley (2012)
+Begonia wilkiei Coyle (2010)
+Begonia wilksii Sosef (1991 publ. 1992)
+Begonia wilsonii Gagnep. (1919)
+Begonia windischii L.B.Sm. ex S.F.Sm. &amp; Wassh. (1999)
+Begonia wollastonii Baker f. (1908)
+Begonia wollnyi Herzog (1909)
+Begonia woodii Merr. (1925)
+Begonia wrayi Hemsl. (1887)
+Begonia wrightiana A.DC. (1859)
+Begonia wui-senioris C.I Peng (2014)
+Begonia wurdackii L.B.Sm. &amp; B.G.Schub. (1963)
+Begonia wutaiana C.I Peng &amp; Y.K.Chen (2005)
+Begonia wuzhishanensis C.I Peng, X.H.Jin &amp; S.M.Ku (2014)
+Begonia wyepingiana Kiew (2005)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Begonia</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Begonia</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Begonia xanthina Hook. (1852)
+Begonia xilitlensis Burt-Utley (1984)
+Begonia xingyiensis T.C.Ku (1995)
+Begonia xinyiensis T.C.Ku (1995)
+Begonia xiphophylla Irmsch. (1953)
+Begonia xiphophylloides Kiew (2013)
+Begonia xishuiensis T.C.Ku (1995)
+Begonia xylopoda L.B.Sm. &amp; B.G.Schub. (1946)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Begonia</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Begonia</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Begonia yapenensis M.Hughes (2015)
+Begonia yappii Ridl. (1929)
+Begonia yiii Kiew &amp; S.Julia (2013)
+Begonia yingjiangensis S.H.Huang (1999)
+Begonia yishanensis T.C.Ku (1999)
+Begonia ynesiae L.B.Sm. &amp; Wassh. (1979)
+Begonia yui Irmsch. (1951)
+Begonia yunckeri Standl. (1938)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Liste_des_espèces_du_genre_Begonia</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_esp%C3%A8ces_du_genre_Begonia</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Begonia zairensis Sosef (1991 publ. 1992)
+Begonia zamboangensis Merr. (1925)
+Begonia zenkeriana L.B.Sm. &amp; Wassh. (1984)
+Begonia zhangii D.Fang &amp; D.H.Qin (2004)
+Begonia zhengyiana Y.M.Shui (2002)
+Begonia zimmermannii Peter ex Irmsch. (1961)
+Begonia zollingeriana (Klotzsch) A.DC. (1859)
+Espèces et hybrides selon Tropicos
+Selon Tropicos                                           (8 juillet 2018) (Attention liste brute contenant possiblement des synonymes) :
+Begonia 'zip' hort.
+Begonia abaculoides Ziesenh.
+Begonia abbottii Urb.
+Begonia abbreviata C.I Peng
+Begonia abdullahpieei Kiew
+Begonia aberrans Irmsch.
+Begonia aborensis Dunn
+Begonia abyssinica Cufod.
+Begonia acaulis Merr. &amp; L.M. Perry
+Begonia acerifolia Kunth
+Begonia aceroides Irmsch.
+Begonia acetosa Vell.
+Begonia acetosella Craib
+Begonia acida Mart. ex DC.
+Begonia aconitifolia A. DC.
+Begonia acrensis Irmsch.
+Begonia aculeata Walp.
+Begonia acuminata Dryand.
+Begonia acuminatissima Merr.
+Begonia acutangula L.H. Bailey &amp; E.Z. Bailey
+Begonia acutifolia Jacq.
+Begonia acutiloba Liebm.
+Begonia acutitepala K.Y. Guan &amp; D.K. Tian
+Begonia adenodes Irmsch.
+Begonia adenopoda Lem.
+Begonia adenostegia Stapf
+Begonia adiantiformis Toledo
+Begonia admirabilis Brade
+Begonia adolfi-friderici Gilg ex Mildbr.
+Begonia adpressa Sosef
+Begonia adscendens C.B. Clarke
+Begonia aenea Linden &amp; André
+Begonia aequata A. Gray
+Begonia aequatoguineensis Sosef &amp; Nguema
+Begonia aequatorialis L.B. Sm. &amp; B.G. Schub.
+Begonia aequilateralis Irmsch.
+Begonia aeranthos L.B. Sm. &amp; B.G. Schub.
+Begonia affinis Merr.
+Begonia afrakensis (Gibbs) L.L. Forrest &amp; Hollingsw.
+Begonia aggeloptera N. Hallé
+Begonia agrial Rojas Acosta
+Begonia aguabuenensis Burt-Utley &amp; Utley
+Begonia aguiabrancensis Kollmann
+Begonia agusanensis Merr.
+Begonia alba Merr.
+Begonia alba-coccinea hort.
+Begonia albido-setulosa Hassk.
+Begonia albidula Brade
+Begonia albiflora hort. ex Klotzsch
+Begonia albo-coccinea Hook.
+Begonia albobracteata Ridl.
+Begonia albococcinea Hook.
+Begonia albomaculata C. DC.
+Begonia albopicta W. Bull
+Begonia alcarrasica J. Sierra
+Begonia alchemilloides Meisn. ex A. DC.
+Begonia alemanii Brade
+Begonia alepensis A. Chev.
+Begonia algaia L.B. Sm. &amp; Wassh.
+Begonia alice-clarkiae Ziesenh.
+Begonia aliciae C.E.C. Fisch.
+Begonia alicida C.B. Clarke ex Hook. f.
+Begonia allenii Standl.
+Begonia almedana Burt-Utley &amp; Utley
+Begonia alnifolia A. DC.
+Begonia alpina L.B. Sm. &amp; Wassh.
+Begonia altamiroi Brade
+Begonia altissima Ridl.
+Begonia altoperuviana A. DC.
+Begonia alvarezii Merr.
+Begonia alveolata T.T. Yu
+Begonia amabilis Linden
+Begonia amoena Wall.
+Begonia amphioxus Sands
+Begonia ampla Hook. f.
+Begonia anaimalaiensis Bedd.
+Begonia anamalayana Bedd.
+Begonia anceps Irmsch.
+Begonia andamensis Parish ex C.B. Clarke
+Begonia andersonii Kiew &amp; S.Julia
+Begonia andina Rusby
+Begonia andreana Sprague
+Begonia androrangensis Humbert ex Keraudren &amp; Bosser
+Begonia anemoniflora Irmsch.
+Begonia anemonoides Azara
+Begonia angilogensis Merr.
+Begonia angolensis Irmsch.
+Begonia angraensis Brade
+Begonia angularis Raddi
+Begonia angulata Vell.
+Begonia angustifoia Hemsl.
+Begonia angustifolia A. DC.
+Begonia angustilimba Merr.
+Begonia angustiloba A. DC.
+Begonia anisoptera Merr.
+Begonia anisosepala Hook. f.
+Begonia anjuanensis Humbert ex Keraudren &amp; Boss.
+Begonia ankaranensis Humbert ex Keraudren &amp; Bosser
+Begonia annobonensis A. DC.
+Begonia annulata K. Koch
+Begonia anodaefolia A. DC.
+Begonia anodifolia A. DC.
+Begonia antaisaka Humbert ex Keraudren &amp; Bosser
+Begonia anthonyi Kiew
+Begonia antioquensis (A. DC.) Warb.
+Begonia antongilensis Humbert ex Keraudren &amp; Bosser
+Begonia antsingyensis Humbert ex Keraudren &amp; Bosser
+Begonia antsiranensis Aymonin &amp; Bosser
+Begonia apayaoensis Merr.
+Begonia apparicioi Brade
+Begonia aptera Blume
+Begonia arachnoidea C.I Peng, Yan Liu &amp; S.M. Ku
+Begonia arborescens Raddi
+Begonia arboreta Y.M. Shui
+Begonia archboldiana Merr. &amp; Perry
+Begonia areolata Miq.
+Begonia arfakensis (Gibbs) L.L.Forrest &amp; Hollingsw.
+Begonia argentea Linden
+Begonia argenteomarginata Tebbitt
+Begonia argentinensis Speg.
+Begonia argyrocoelis Hérincq
+Begonia argyrostigma Fisch. ex Link &amp; Otto
+Begonia aridicaulis Ziesenh.
+Begonia arnottiana DC.
+Begonia arrogans Irmsch.
+Begonia articulata Irmsch.
+Begonia artior Irmsch.
+Begonia asarifolia Liebm.
+Begonia asperifolia Irmsch.
+Begonia aspleniifolia Hook. f. ex DC.
+Begonia assamica Linden ex Pynaert
+Begonia assurgens Irmsch.
+Begonia asteroides L.B. Sm. &amp; B.G. Schub.
+Begonia asteropyrifolia Y.M. Shui &amp; W.H. Chen
+Begonia asympeltata L.B. Sm. &amp; Wassh.
+Begonia atricha DC.
+Begonia atroglandulosa Sosef
+Begonia attenuata (Klotzsch) A. DC.
+Begonia aucibifolia hort. ex Klotzsch
+Begonia augustae Irmsch.
+Begonia augustinei Hemsl.
+Begonia aurantiaca hort. ex Planch.
+Begonia aurantiflora C.I Peng, Yan Liu &amp; S.M. Ku
+Begonia auriculata Hook. f.
+Begonia auritistipula Y.M. Shui &amp; W.H. Chen
+Begonia austroguangxiensis Y.M. Shui &amp; W.H. Chen
+Begonia austrotaiwanensis Y.K. Chen &amp; C.I Peng
+Begonia awongii Sands
+Begonia axillaris Ridl.
+Begonia axillipara Ridl.
+Begonia azuensis Urb. &amp; Ekman
+Begonia baccata Hook. f.
+Begonia bagotiana Humbert ex Keraudren
+Begonia bahakensis Sands
+Begonia bahiensis A. DC.
+Begonia bakeri C. DC.
+Begonia balansae C. DC.
+Begonia balansana Gagnep.
+Begonia balmisiana Balmis
+Begonia bamaensis Yan Liu &amp; C.I Peng
+Begonia banaoensis J. Sierra
+Begonia bangii Kuntze
+Begonia barahonensis (O.E. Schulz) Urb.
+Begonia baramensis Merr.
+Begonia barbana C. DC.
+Begonia barbata Wall.
+Begonia barbellata Ridl.
+Begonia barborkae Halda
+Begonia barkeri Knowles &amp; Westc.
+Begonia barkleyana L.B. Sm.
+Begonia baronii Baker
+Begonia barrigae L.B. Sm. &amp; B.G. Schub.
+Begonia barsalouxiae Standl. &amp; L.O. Williams
+Begonia bartlettiana Merr. &amp; L.M. Perry
+Begonia bataiensis Kiew
+Begonia batesii C. DC.
+Begonia baturongensis Kiew
+Begonia bauensis Brade
+Begonia baumannii Lemoine
+Begonia baviensis Gagnep.
+Begonia beccariana Ridl.
+Begonia beccarii Warb.
+Begonia beddomei Hook. f.
+Begonia bekopakensis Aymonin &amp; Bosser
+Begonia bellii H. Lév.
+Begonia bequaertii Robyns &amp; Lawalrée
+Begonia berhamanii Kiew
+Begonia bernieri A. DC.
+Begonia beryllae Ridl.
+Begonia besleriifolia Schott
+Begonia betsimisaraka Humbert ex Keraudren &amp; Bosser
+Begonia bettinae Ziesenh.
+Begonia bhotanensis hort.
+Begonia bicolor S. Watson
+Begonia bidentata Raddi
+Begonia biflora T.C. Ku
+Begonia bifolia Ridl.
+Begonia bifurcata L.B. Sm. &amp; B.G. Schub.
+Begonia biguassuensis Brade
+Begonia biliranensis Merr.
+Begonia bilocularis
+Begonia binotii hort. ex C. Chev.
+Begonia binuangensis Merr.
+Begonia biolleyi C. DC.
+Begonia bipetala G. Lodd.
+Begonia bipindensis Gilg ex Engl.
+Begonia bipinnatifida J.J. Sm.
+Begonia biserrata Lindl.
+Begonia bismarckiana Veitch
+Begonia bissei Sierra
+Begonia blumenaviensis Irmsch.
+Begonia bogneri Ziesenh.
+Begonia boisiana Gagnep.
+Begonia boissieri A. DC.
+Begonia boiviana A. DC.
+Begonia boiviniana A. DC.
+Begonia boliviensis A. DC.
+Begonia bolleana Urb. &amp; Ekman
+Begonia bolsteri Merr.
+Begonia bombycina Blume
+Begonia bonii Gagnep.
+Begonia bonitoensis Brade
+Begonia bonthainensis Hemsl.
+Begonia bonus-henricus J.J. de Wilde
+Begonia boqueronensis Burt-Utley &amp; Utley
+Begonia boquetensis Irmsch.
+Begonia boraceinsis Handro
+Begonia boreoharlingii Tebbitt &amp; Moonlight
+Begonia borneensis A. DC.
+Begonia bosseri Keraudren
+Begonia botryoides Moonlight &amp; Tebbitt
+Begonia boucheana A. DC.
+Begonia bouffordii C.I Peng
+Begonia bowerae Ziesenh.
+Begonia bowringiana Champ. ex Benth.
+Begonia brachybotrys Merr. &amp; L.M. Perry
+Begonia brachyclada Urb. &amp; Ekman
+Begonia brachypoda O.E. Schulz
+Begonia brachyptera Hayata
+Begonia bracteata Jack
+Begonia bracteosa A. DC.
+Begonia bradei Irmsch.
+Begonia brandbygeana L.B. Sm. &amp; Wassh.
+Begonia brandisiana Kurz
+Begonia brasila DC.
+Begonia brasiliana Schrank ex Steud.
+Begonia brasiliensis Klotzsch
+Begonia brassii Merr. &amp; G. Perry
+Begonia breedlovei Burt-Utley
+Begonia bretschneideriana Hemsl.
+Begonia brevibracteata Kupicha
+Begonia brevicaulis A. DC.
+Begonia brevicordata L.B. Sm. &amp; B.G. Schub.
+Begonia brevicyma C. DC.
+Begonia brevilobata Irmsch.
+Begonia brevipedunculata Y.M. Shui
+Begonia brevipes Merr.
+Begonia brevipetala (A. DC.) Warb.
+Begonia brevirimosa Irmsch.
+Begonia brevisetulosa C.Y. Wu
+Begonia bridgesii A. DC.
+Begonia brongniartiana Lem.
+Begonia brongniartii Lem.
+Begonia brooksii hort.
+Begonia broussonetiifolia A. DC.
+Begonia bruneelii De Wild.
+Begonia bruneiana Sands
+Begonia buchholzii Gilg
+Begonia buchtienii Irmsch.
+Begonia buddleiifolia A. DC.
+Begonia bufoderma L.B. Sm. &amp; Wassh.
+Begonia buimontana Yamam.
+Begonia bulbifera Lodd. ex Otto &amp; A. Dietr.
+Begonia bulbillifera Link, Klotzsch &amp; Otto
+Begonia bulbosa H. Lév.
+Begonia bullata Urb. &amp; Ekman
+Begonia bullatifolia L. Kollmann
+Begonia bulusanensis Elmer ex Merr.
+Begonia burbidgei Stapf
+Begonia burkei hort.
+Begonia burkillii Dunn
+Begonia burle-marxii Brade
+Begonia burmensis L.B. Sm. &amp; Wassh.
+Begonia burttii Kiew &amp; S.Julia
+Begonia buseyi Burt-Utley
+Begonia buttonii Irmsch.
+Begonia cacauicola L.B. Sm. ex S.F. Sm. &amp; Wassh.
+Begonia caespitosa Jack
+Begonia caffra Meisn.
+Begonia calabarica Stapf
+Begonia calcarea Ridl.
+Begonia calcicola Merr.
+Begonia calciphylla hort. ex Houlston
+Begonia calderonii Standl.
+Begonia californica Brandegee
+Begonia calliantha Merr. &amp; Perry
+Begonia callosa L. Kollmann
+Begonia calophylla Gilg ex Engl.
+Begonia calvescens (Brade ex L.B. Sm. &amp; R.C. Sm.) E.L. Jacques &amp; Mamede
+Begonia calzadae Burt-Utley &amp; Utley
+Begonia cameroonensis L.B. Sm. &amp; Wassh.
+Begonia camiguinensis Elmer
+Begonia campanensis Burt-Utley &amp; Utley
+Begonia campos-portoana Brade
+Begonia canaliculata Brade
+Begonia canarana Miq.
+Begonia candicans Graham
+Begonia candollei Ziesenh.
+Begonia cantareira hort.
+Begonia capanemae Brade
+Begonia caparaoensis E.L. Jacques &amp; L. Kollmann
+Begonia capensis Blanco
+Begonia capillipes Gilg
+Begonia capituliformis Irmsch.
+Begonia caraguatatubensis Brade
+Begonia cardiocarpa Liebm.
+Begonia cardiophora Irmsch.
+Begonia cariocana Brade
+Begonia carletonii Standl.
+Begonia carnosa Teijsm. &amp; Binn.
+Begonia carnosula Ridl.
+Begonia caroliniifolia Regel
+Begonia carollina F.A. Barkley &amp; Golding
+Begonia carpinifolia Liebm.
+Begonia carrieae Ziesenh.
+Begonia casiguranensis Quisumb. &amp; Merr.
+Begonia caslerima F.A. Barkley &amp; Golding
+Begonia castaneifolia Otto &amp; A. Dietr.
+Begonia castilloi Merr.
+Begonia cataractarum J. Braun &amp; K. Schumacher
+Begonia catharinensis Brade
+Begonia cathayana Hemsl.
+Begonia cathcartii Hook. f. &amp; Thomson
+Begonia caudata Merr.
+Begonia caudilimba C. DC.
+Begonia cauliflora Sands
+Begonia cavaleriei H. Lév.
+Begonia cavallyensis A. Chev.
+Begonia cavum Ziesenh.
+Begonia cebadillensis Houghton ex L.B. Sm. &amp; B.G. Schub.
+Begonia cehengensis T.C. Ku
+Begonia celebica Irmsch.
+Begonia cerasiphylla L.B. Sm. &amp; Wassh.
+Begonia ceratocarpa S.H. Huang &amp; Y.M. Shui
+Begonia chaetocarpa Kuntze
+Begonia chaiana Kiew &amp; S.Julia
+Begonia chapecoensis Brade
+Begonia charadrophila Tutin
+Begonia chemillenensis Moonlight
+Begonia chepoensis C. DC.
+Begonia chevalieri Warb. ex A. Chev.
+Begonia chiapensis Burt-Utley
+Begonia chiasmogyna M. Hughes
+Begonia chimborazo hort.
+Begonia chingii Irmsch.
+Begonia chingipengii Rubite
+Begonia chiriquensis Standl.
+Begonia chiriquina C. DC.
+Begonia chishuiensis T.C. Ku
+Begonia chitoensis T.S. Liu &amp; M.J. Lai
+Begonia chivatoa Ziesenh.
+Begonia chlorandra Sands
+Begonia chlorocarpa Irmsch. ex Sands
+Begonia chlorolepis L.B. Sm. &amp; B.G. Schub.
+Begonia chloroneura P. Wilkie &amp; Sands
+Begonia chlorosticta Sands
+Begonia chongii Sands
+Begonia chrysantha Tebbitt
+Begonia chuniana C.Y. Wu
+Begonia chuyunshanensis C.I Peng &amp; Y.K. Chen
+Begonia cilatobracteata Engl.
+Begonia ciliata Kunth
+Begonia cilibracteola C. DC.
+Begonia ciliifera Merr.
+Begonia ciliobracteata Warb.
+Begonia cincinnifera Irmsch.
+Begonia cinnabarina Hook.
+Begonia circumlobata Hance
+Begonia cirrosa L.B. Sm. &amp; Wassh.
+Begonia cladocarpa Baker
+Begonia cladocarpoides Humbert ex Aymonin &amp; Bosser
+Begonia cladotricha M. Hughes
+Begonia clarkei Hook. f.
+Begonia clavicaulis Irmsch.
+Begonia clemensiae Merr. &amp; L.M. Perry
+Begonia clivalis Ridl.
+Begonia clypeifolia Hook. f.
+Begonia cobana C. DC.
+Begonia coccinea Hook.
+Begonia coelocentroides Y.M. Shui &amp; Z.D. Wei
+Begonia cognata Irmsch.
+Begonia collaris Brade
+Begonia collina Irmsch.
+Begonia collisiae Merr.
+Begonia colombiana L.B. Sm. &amp; B.G. Schub.
+Begonia colorata Warb.
+Begonia columnaris Benth.
+Begonia comata Kuntze
+Begonia comorensis A. DC. ex Warb.
+Begonia compacticaulis Irmsch.
+Begonia comperei R. Wilczek
+Begonia complicata A. DC.
+Begonia compta W. Bull
+Begonia concanensis A. DC.
+Begonia conchifolia A. Dietr.
+Begonia concinna Schott
+Begonia confertiflora Gardner
+Begonia confinis L.B. Sm. &amp; Wassh.
+Begonia confusa L.B. Sm. &amp; B.G. Schub.
+Begonia congesta Ridl.
+Begonia conipila Irmsch. ex Kiew
+Begonia conraui Gilg
+Begonia consanguinea Merr.
+Begonia consobrina Irmsch.
+Begonia contracta Warb.
+Begonia convallariodora C. DC.
+Begonia convolvulacea (Klotzsch) A. DC.
+Begonia cooperi C. DC.
+Begonia copelandii Merr.
+Begonia copeyana C. DC.
+Begonia coptidifolia H.G. Ye, F.G. Wang, Y.S. Ye &amp; C.I Peng
+Begonia coptidimontana C.Y. Wu
+Begonia corallina Carrière
+Begonia cordata Vell.
+Begonia cordifolia (Wight) Thwaites
+Begonia coriacea A. DC.
+Begonia corneri Kiew
+Begonia cornitepala Irmsch.
+Begonia cornuta L.B. Sm. &amp; B.G. Schub.
+Begonia coronensis Merr.
+Begonia corredorana C. DC.
+Begonia corrugata Kiew &amp; S.Julia
+Begonia corzoensis Ziesenh.
+Begonia coursii Humbert ex Keraudren
+Begonia cowellii Nash
+Begonia crassicaulis Lindl.
+Begonia crassipes Gilg ex Engl.
+Begonia crassirostris Irmsch.
+Begonia crassisetulosa F.A. Barkley &amp; Golding
+Begonia crateris Exell
+Begonia cremnophila Tebbitt
+Begonia crenata Dryand.
+Begonia crenatiflora (Klotzsch &amp; Putz.) A. DC.
+Begonia crenatifolia A. DC.
+Begonia crenulata Schott ex A. DC.
+Begonia crinita Oliv. ex Hook. f.
+Begonia crispa
+Begonia crispipila Elmer
+Begonia crispula Brade
+Begonia cristata Warb. ex Koord.
+Begonia cristobalensis Ziesenh.
+Begonia croatii Burt-Utley
+Begonia crocea C.I Peng
+Begonia cruentia Graham ex Steud.
+Begonia cryptocarpa L.B. Sm. &amp; B.G. Schub.
+Begonia crystallina Y.M. Shui &amp; W.H. Chen
+Begonia cuatrecasasiana L.B. Sm. &amp; B.G. Schub.
+Begonia cubensis Hassk.
+Begonia cubincola A. DC.
+Begonia cucphuongensis H.Q. Nguyen &amp; Tebbitt
+Begonia cucullata Willd.
+Begonia cucullifolia Hassk.
+Begonia cucurbitifolia C.Y. Wu
+Begonia cuernavacensis Ziesenh.
+Begonia cultrata Irmsch.
+Begonia cumingiana DC.
+Begonia cumingii A. Gray
+Begonia cuneata Walp.
+Begonia cuneatifolia Irmsch.
+Begonia cuninghamei Sprague
+Begonia cunreata Walp.
+Begonia cupreata Henriq.
+Begonia curtii L.B. Sm. &amp; B.G. Schub.
+Begonia curtisii Ridl.
+Begonia curvicarpa S.M. Ku, C.I Peng &amp; Yan Liu
+Begonia cuspidata C. DC.
+Begonia cyanescens Sands
+Begonia cyathophora Poepp. &amp; Endl.
+Begonia cyclophylla Hook. f.
+Begonia cylindrata L.B. Sm. &amp; B.G. Schub.
+Begonia cylindrica D.R. Liang &amp; X.X. Chen
+Begonia cylindricaulis Brade
+Begonia cymbalifera L.B. Sm. &amp; B.G. Schub.
+Begonia daedalea Lem.
+Begonia dasycarpa A. DC.
+Begonia dasypoda Meisn. ex A. DC.
+Begonia daveauiana Godefroy
+Begonia davidsoniae Standl. ex L.B. Sm. &amp; B.G. Schub.
+Begonia davisii Veitch ex Hook. f.
+Begonia daweishanensis S.H. Huang &amp; Y.M. Shui
+Begonia daxinensis T.C. Ku
+Begonia dayi hort.
+Begonia dealbata Liebm.
+Begonia debaoensis C.I Peng, Yan Liu &amp; S.M. Ku
+Begonia debilis King
+Begonia decaisneana Gagnep.
+Begonia decandra Pav. ex A. DC.
+Begonia decaryana Humbert ex Keraudren &amp; Bosser
+Begonia declinata Vell.
+Begonia decora Stapf
+Begonia delavayi Gagnep.
+Begonia delicatula C.S.P. Parish ex C.B. Clarke
+Begonia deliciosa Linden ex Fotsch
+Begonia demissa Craib
+Begonia densifolia Irmsch.
+Begonia densiretis Irmsch.
+Begonia dentata Pav. ex A. DC.
+Begonia dentatiloba A. DC.
+Begonia dentatobracteata C.Y. Wu
+Begonia denticulata Kunth
+Begonia depauperata Schott
+Begonia deryckxiana Lem.
+Begonia descoleana L.B. Sm. &amp; B.G. Schub.
+Begonia dewildei Sosef
+Begonia diadema Linden ex Rodigas
+Begonia diamantina hort. ex Lesc.
+Begonia diaphones L.B. Sm. &amp; Wassh.
+Begonia dicaricata Irmsch.
+Begonia dichotoma Jacq.
+Begonia dichroa Sprague
+Begonia dielseiana Gilg
+Begonia dielsiana E. Pritz.
+Begonia dietrichiana Irmsch.
+Begonia difformis F.A. Barkley ex Golding
+Begonia diffusa L.B. Sm. &amp; B.G. Schub.
+Begonia diffusiflora Merr. &amp; Perry
+Begonia digitata Raddi
+Begonia digwilliana Carrière
+Begonia digyna Irmsch.
+Begonia dimidiata Vell.
+Begonia dioica Buch.-Ham. ex D. Don
+Begonia dipetala Graham
+Begonia diptera Dryand.
+Begonia discolor R. Br.
+Begonia discrepans Irmsch.
+Begonia discreta Craib
+Begonia dispar Rchb.
+Begonia dissecta Irmsch.
+Begonia disticha Link
+Begonia divaricata Irmsch.
+Begonia diversifolia Graham
+Begonia diversistipulata Irmsch.
+Begonia diwolii Kiew
+Begonia djamuensis Irmsch.
+Begonia dodsonii L.B. Sm. &amp; Wassh.
+Begonia dolabrifera C. DC.
+Begonia dolichotricha Merr.
+Begonia domingensis A. DC.
+Begonia dominicalis A. DC.
+Begonia donkelaariana Lem.
+Begonia dosedlae Gilli
+Begonia dregei Burtt Davy
+Begonia dressleri Burt-Utley
+Begonia dryadis Irmsch.
+Begonia dubia Haw.
+Begonia duclouxii Gagnep.
+Begonia dugandiana L.B. Sm. &amp; B.G. Schub.
+Begonia duncan-thomasii Sosef
+Begonia duruensis De Wild.
+Begonia dusenii Brade
+Begonia dux C.B. Clarke
+Begonia ealensis Irmsch.
+Begonia eberhardtii Gagnep.
+Begonia ebolowensis Engl.
+Begonia echinata Royle
+Begonia echinosepala Regel
+Begonia eciliata O.E. Schulz
+Begonia ecuador hort. ex E. K. Gray
+Begonia ecuadoriensis hort. ex Buxton
+Begonia edanoi Merr.
+Begonia edmundoi Brade
+Begonia edulis Gilg ex Engl.
+Begonia egleri Brade
+Begonia egregia N.E. Br.
+Begonia eiromischa Ridl.
+Begonia ekmanii Houghton ex L.B. Sm. &amp; B.G. Schub.
+Begonia elachista Moonlight &amp; Tebbitt
+Begonia elaeagnifolia Hook. f.
+Begonia elastotemmoides Hook. f.
+Begonia elata Klotzsch
+Begonia elatior hort. ex Steud.
+Begonia elatostematoides Merr.
+Begonia elatostemma Ridl.
+Begonia elatostemmoides Hook. f.
+Begonia elegans Elmer
+Begonia elianii Warb. ex T. Durand &amp; Jacks.
+Begonia eliasii Warb.
+Begonia eliassii Warb.
+Begonia elisabethae Kiew
+Begonia elliotii Gilg ex Engl.
+Begonia elliptica Kunth
+Begonia elmeri Merr.
+Begonia elongata Wall.
+Begonia emeiensis C.M. Hu ex G.Y. Wu &amp; T.C. Ku
+Begonia eminii R. Fern.
+Begonia emirnea Humbert ex Keraudren &amp; Bosser
+Begonia engleri Gilg
+Begonia engleriana Gilg
+Begonia epibaterium Mart. ex A. DC.
+Begonia epilobioides Warb.
+Begonia epiphytica Hook. f.
+Begonia epipsila Brade
+Begonia episcopalis C.B. Clarke
+Begonia erecta Vell.
+Begonia erectocaulis Sosef
+Begonia erectotricha Sosef
+Begonia eriocaulis Vis.
+Begonia eriocaulon Neumann
+Begonia ermanii Klotzsch
+Begonia erminea L'Hér.
+Begonia erosa Blume
+Begonia erubescens H. Lév.
+Begonia erythrocarpa A. DC.
+Begonia erythrogyna Sands
+Begonia erythrotricha C. DC.
+Begonia esculenta Merr.
+Begonia espiritosantensis E.L. Jacques &amp; Mamede
+Begonia esquirolii H. Lév.
+Begonia estrellensis C. DC.
+Begonia euryphylla L.B. Sm. ex S.F. Sm. &amp; Wassh.
+Begonia eutricha Sands
+Begonia evansiana Andrews
+Begonia everettii Merr.
+Begonia exalata C. DC.
+Begonia excelsa Hook. f.
+Begonia exigua Irmsch.
+Begonia exilis O.E. Schulz
+Begonia extensa L.B. Sm. &amp; B.G. Schub.
+Begonia extranea L.B. Sm. &amp; B.G. Schub.
+Begonia fabulosa L.B. Sm. &amp; Wassh.
+Begonia fagifolia Otto &amp; A. Dietr.
+Begonia fagopyroides Kunth &amp; Bouché
+Begonia falcata L.B. Sm. &amp; B.G. Schub.
+Begonia falciloba Liebm.
+Begonia fallax DC.
+Begonia fangii Y.M. Shui &amp; C.I Peng
+Begonia fasciculata Jack
+Begonia fasciculiflora Merr.
+Begonia faureana Linden ex Garnier
+Begonia faustinoi Burt-Utley &amp; Utley
+Begonia favargeri Rech.
+Begonia fellereriana Irmsch.
+Begonia fenchihuensis S.S. Ying
+Begonia fengii T.C. Ku
+Begonia fenicis Merr.
+Begonia fernaldiana L.B. Sm. &amp; B.G. Schub.
+Begonia fernando-costae Irmsch.
+Begonia ferramica N. Hallé
+Begonia ferruginea L. f.
+Begonia ferruginia H. Hara
+Begonia festiva Craib
+Begonia fibrosa C.B. Clarke
+Begonia ficicola Irmsch.
+Begonia fiebrigii C. DC.
+Begonia filibracteosa Irmsch.
+Begonia filicifolia N. Hallé
+Begonia filiformis Irmsch.
+Begonia filipes Benth.
+Begonia fimbriata Liebm.
+Begonia fimbribracteata Y.M. Shui &amp; W.H. Chen
+Begonia fimbristipula Hance
+Begonia finlaysoniana Wall.
+Begonia fischeri Schrank
+Begonia fissicarpa Warb.
+Begonia fissisepala C. DC.
+Begonia fissistyla Irmsch.
+Begonia fissurarum C. DC.
+Begonia flacca Irmsch.
+Begonia flaccidissima Kurz
+Begonia flagellaris H. Hara
+Begonia flava Binns
+Begonia flavescens hort. ex Otto
+Begonia flaviflora H. Hara
+Begonia flexicaulis Ridl.
+Begonia flexula Ridl.
+Begonia flexuosa A. DC.
+Begonia floccifera Bedd.
+Begonia floribunda Carrière
+Begonia fluminensis Brade
+Begonia foliosa Kunth
+Begonia fonsecae Standl.
+Begonia forbesii King
+Begonia fordii Irmsch.
+Begonia forgetiana Hemsl.
+Begonia formosana (Hayata) Masam.
+Begonia formosissima Sandwith
+Begonia forrestii Irmsch.
+Begonia fortunensis Burt-Utley &amp; Utley
+Begonia foveolata Irmsch.
+Begonia foxworthyi Burkill ex Ridl.
+Begonia fragae L. Kollmann &amp; Peixoto
+Begonia fragilis Baker
+Begonia francisiae Ziesenh.
+Begonia francoisii Guillaumin
+Begonia franconis Liebm.
+Begonia fraseri Kiew
+Begonia friburgensis Brade
+Begonia frigida hort. ex A. DC.
+Begonia frigopyroides Kunth &amp; C.D. Bouché
+Begonia fritz-muelleri Brade
+Begonia froebelii A. DC.
+Begonia fruticella Ridl.
+Begonia fruticosa A. DC.
+Begonia fuchsiiflora (A. DC.) A.I. Baranov &amp; F.A. Barkley
+Begonia fuchsiifolia (A. DC.) Warb.
+Begonia fuchsioides Hook.
+Begonia fulgens Lem.
+Begonia fulvo-setulosa Brade
+Begonia fulvo-villosa Warb.
+Begonia furfuracea Hook. f.
+Begonia fusca Liebm.
+Begonia fuscisetosa Sands
+Begonia fuscocaulis Brade
+Begonia fusialata Warb.
+Begonia fusibulba C. DC.
+Begonia fusicarpa Irmsch.
+Begonia gabonensis J.J. de Wilde
+Begonia gagnepainiana Irmsch.
+Begonia galeottiana Lem.
+Begonia galeottii hort. Berol ex Klotzsch
+Begonia gamblei F.A. Barkley &amp; Golding
+Begonia gamolepis L.B. Sm. &amp; B.G. Schub.
+Begonia garagarana C. DC.
+Begonia gardneri A. DC.
+Begonia garretii Craib
+Begonia garrettii Craib
+Begonia garuvae L.B. Sm. &amp; R.C. Sm.
+Begonia gaudichaudii A. DC.
+Begonia gehrigeri L.B. Sm.
+Begonia gehrtii Irmsch.
+Begonia gemella Warb. ex Koord.
+Begonia geminiflora L.B. Sm. &amp; Wassh.
+Begonia gemmipara Hook. f. &amp; Thomson
+Begonia gemmirhiza Lév.
+Begonia geniculata Jack
+Begonia gentilii De Wild.
+Begonia gentryi Burt-Utley &amp; Utley
+Begonia geoffrayi Gagnep.
+Begonia geraniifolia Hook.
+Begonia geranioides Hook. f.
+Begonia germaineana Tebbitt
+Begonia gesnerioides L.B. Sm. &amp; B.G. Schub.
+Begonia gibbsiae Irmsch. ex Sands
+Begonia gigabracteata H.Z. Li &amp; H. Ma
+Begonia gigantea Wall.
+Begonia gigaphylla Y.M. Shui &amp; W.H. Chen
+Begonia gilgiana Irmsch.
+Begonia gilgii Engl.
+Begonia gitingensis Elmer
+Begonia glaberrima Urb. &amp; Ekman
+Begonia glabra Aubl.
+Begonia glabricaulis Irmsch.
+Begonia gladiifolia Engl.
+Begonia glandulifera Griseb.
+Begonia glandulosa A. DC. ex Hook.
+Begonia glauca (Klotzsch) Ruiz &amp; Pav. ex A. DC.
+Begonia glaucoides Irmsch.
+Begonia glaucophylla Hook. f.
+Begonia glechomifolia C.M. Hu ex C.Y. Wu &amp; T.C. Ku
+Begonia glutinosa Kiew
+Begonia goegoensis N.E. Br.
+Begonia goldingiana L. Kollmann &amp; A.P. Fontana
+Begonia gomantongensis Kiew
+Begonia goniotis C.B. Clarke
+Begonia gorgonea Tebbitt
+Begonia gossweileri Irmsch.
+Begonia goudotii A. DC.
+Begonia gouroana A. Chev.
+Begonia gracilicaulis Irmsch.
+Begonia gracilioides Burt-Utley &amp; Utley
+Begonia gracilior Burt-Utley &amp; McVaugh
+Begonia gracilipes Merr.
+Begonia gracilipetiolata De Wild.
+Begonia gracilis Kunth
+Begonia gracillima A. DC.
+Begonia grahamiana Wight
+Begonia grandibracteolata Irmsch.
+Begonia grandiflora Jacq.
+Begonia grandis Dryand.
+Begonia grandpetala Irmsch.
+Begonia grantiana Craib
+Begonia grata Geddes ex Craib
+Begonia grewiifolia (A. DC.) Warb.
+Begonia griffithiana (C. DC.) Warb.
+Begonia griffithii Hook.
+Begonia grisea A. DC.
+Begonia griseocaulis Irmsch.
+Begonia groenewegensis hort. ex K. Koch &amp; Fintelm.
+Begonia guaduensis Kunth
+Begonia guangxiensis C.Y. Wu
+Begonia guaniana H. Ma &amp; H.Z. Li
+Begonia guantosii F.A. Barkley &amp; Golding
+Begonia guatemalensis Van Houtte ex Galeotti
+Begonia gueinziana Irmsch.
+Begonia gueritziana Gibbs
+Begonia guianensis A. DC.
+Begonia guishanensis S.H. Huang &amp; Y.M. Shui
+Begonia gulinqingensis S.H. Huang &amp; Y.M. Shui
+Begonia gungshanensis C.Y. Wu
+Begonia gunnerifolia Linden &amp; André
+Begonia guttata Wall. ex A. DC.
+Begonia guyanensis A. DC.
+Begonia haageana S. Watson
+Begonia haematotricha A. DC.
+Begonia hahiepiana H.Q. Nguyen &amp; Tebbitt
+Begonia hainanensis Chun &amp; F. Chun
+Begonia halconensis Merr.
+Begonia hamiltoniana Lehm.
+Begonia hammoniae Irmsch.
+Begonia handelii Irmsch.
+Begonia handroi Brade
+Begonia haniffii Burkhill
+Begonia harlingii L.B. Sm. &amp; Wassh.
+Begonia harmandii Gagnep.
+Begonia harrowiana Diels
+Begonia hasskarliana A. DC.
+Begonia hasskarlii Zoll. &amp; Moritzi
+Begonia hassleri C. DC.
+Begonia hastata Vell.
+Begonia hatacoa Buch.-Ham. ex D. Don
+Begonia haullevilleana De Wild.
+Begonia havilandii Ridl.
+Begonia hayamiana Nob.Tanaka
+Begonia hayatae Gagnep.
+Begonia heddei Warb.
+Begonia hederacea A. DC.
+Begonia hederifolia Linden ex A. DC.
+Begonia heineri Brade
+Begonia hekouensis S.H. Huang
+Begonia heliostrophe Kiew
+Begonia heloisana Brade
+Begonia hemicardia Elmer ex Merr.
+Begonia hemsleyana Hook. f.
+Begonia henrilaportei Scherber. &amp; J. Duruisseau
+Begonia henriquesii C. DC.
+Begonia henryi Hemsl.
+Begonia henryi × sinensis? Irmsch.
+Begonia hepatica-maculata hort. ex Ziesenh.
+Begonia heptaptera Sands
+Begonia heracleifolia Schltdl. &amp; Cham.
+Begonia herbacea Vell.
+Begonia heringeri Brade
+Begonia hernandiifolia Hook.
+Begonia hernandioides Merr.
+Begonia herrerae L.B. Sm. &amp; B.G. Schub.
+Begonia herteri Irmsch.
+Begonia herticifolia hort. ex Klotzsch
+Begonia herveyana King
+Begonia hetacoa H. Hara
+Begonia heterochroma Sosef
+Begonia heteroclinis Miq. ex Koord.
+Begonia heterodonta Rusby
+Begonia heterophylla hort. ex Klotzsch
+Begonia heteropoda Baker
+Begonia hexandra Irmsch.
+Begonia hexaptera Sands
+Begonia heydei C. DC.
+Begonia hidalgensis Smith &amp; Schubert
+Begonia hieronymi Lindau
+Begonia hilariana A. DC.
+Begonia hintoniana L.B. Sm. &amp; B.G. Schub.
+Begonia hirsuta Aubl.
+Begonia hirsuticaulis Irmsch.
+Begonia hirsutula Hook. f.
+Begonia hirta (Klotzsch) L.B. Sm. &amp; B.G. Schub.
+Begonia hirtella Link
+Begonia hispida Schott
+Begonia hispidavillosa Ziesenh.
+Begonia hispidissima Zippal ex Koorders
+Begonia hitchcockii Irmsch.
+Begonia hochbaumii hort. ex E. Otto
+Begonia hoegeana Regel &amp; Schmidt
+Begonia hoehneana Irmsch.
+Begonia holmnielseniana L.B. Sm. &amp; Wassh.
+Begonia holosericea Teijsm. &amp; Binn.
+Begonia holostyla F.A. Barkley &amp; Golding
+Begonia holtonis A. DC.
+Begonia holttumii Irmsch.
+Begonia homblei De Wild.
+Begonia homonyma Steud.
+Begonia hondurensis Burt-Utley &amp; Utley
+Begonia hongkongensis F.W. Xing
+Begonia hookeri Sweet
+Begonia hookeriana Gardner
+Begonia horsfieldii Miq.
+Begonia horticola Irmsch.
+Begonia houttuynioides T.T. Yu
+Begonia howii Merr. &amp; Chun
+Begonia huangii Y.M. Shui &amp; W.H. Chen
+Begonia huberi C. DC.
+Begonia hubertii Ziesenh.
+Begonia huegelii (Klotzsch) A. DC.
+Begonia hugelii (Klotzsch) A. DC.
+Begonia hullettii Ridl.
+Begonia humbertii Keraudren
+Begonia humboldtiana Gibbs
+Begonia humericola Sands
+Begonia humilicaulis Irmsch.
+Begonia humilis Dryand.
+Begonia humillima L.B. Sm. &amp; Wassh.
+Begonia hydrocotylifolia Otto ex Hook.
+Begonia hydrophila Miq.
+Begonia hydrophylloides L.B. Sm. &amp; B.G. Schub.
+Begonia hydrrocotylifolia Graham ex Klotzsch
+Begonia hygrophila C. DC.
+Begonia hymenocarpa C.Y. Wu
+Begonia hymenophylla Gagnep.
+Begonia hymenophylloides Kingdon-Ward
+Begonia hypogaea H.J.P. Winkl.
+Begonia hypoggaea W. Winkl.
+Begonia hypolipara Sandwith
+Begonia ibitiocensis E.L. Jacques &amp; Mamede
+Begonia ignea (Klotzsch) Warsz. ex A. DC.
+Begonia ignorata Irmsch.
+Begonia imbricata Sands
+Begonia imitans Irmsch.
+Begonia imperfecta Irmsch.
+Begonia imperialis Lem.
+Begonia inanis Irmsch.
+Begonia incana Lindl.
+Begonia incarnata Link &amp; Otto
+Begonia incerta Craib
+Begonia incisa A. DC.
+Begonia incisoserrata A. DC.
+Begonia incondita Craib
+Begonia inconspicua Brade
+Begonia inculta Irmsch.
+Begonia inermis Irmsch.
+Begonia inflata C.B. Clarke
+Begonia injoloensis De Wild.
+Begonia inostegia Stapf
+Begonia insignis Graham
+Begonia insularis Brade
+Begonia insularum Irmsch.
+Begonia integerrima Spreng.
+Begonia integrifolia Dalzell
+Begonia intercedens Irmsch.
+Begonia intermixta Irmsch.
+Begonia inversa Irmsch.
+Begonia involucrata Liebm.
+Begonia ionophylla Irmsch.
+Begonia irdescens Dunn
+Begonia iridescens Dunn
+Begonia irmscheri L.B. Sm. &amp; B.G. Schub.
+Begonia isabelensis Quisumb. &amp; Merr.
+Begonia isalensis Humbert ex Keraudren &amp; Bosser
+Begonia isoptera Dryand. ex Sm.
+Begonia isopterocarpa Irmsch.
+Begonia isopteroidea King
+Begonia itaguassuensis Brade
+Begonia itajaiensis Brade
+Begonia itatiaiensis Brade
+Begonia itatinensis Irmsch. ex Brade
+Begonia itercedens Irmsch.
+Begonia itupavensis Brade
+Begonia iucunda Irmsch.
+Begonia jagorii Warb.
+Begonia jairii Brade
+Begonia jaliscana Burt-Utley
+Begonia jamaicensis A. DC.
+Begonia jamesoniana A. DC.
+Begonia jarmilae Halda
+Begonia jatrophifolia F. Cels
+Begonia jaurezii Laing
+Begonia jayaensis Kiew
+Begonia jenmanii Tutin
+Begonia jiewhoei Kiew
+Begonia jingxiensis D. Fang &amp; Y.G. Wei
+Begonia jocelinoi Brade
+Begonia johnstonii Oliv. ex Hook. f.
+Begonia josephi A. DC.
+Begonia juliana Loefgr. ex Hoehne
+Begonia junghuhniana Miq.
+Begonia juninensis Irmsch.
+Begonia juntasensis Kuntze
+Begonia jureiensis S. Gomes da Silva &amp; Mamede
+Begonia jussiaecarpa Warb.
+Begonia kachak K.G.Pearce
+Begonia kaietukensis Tutin
+Begonia kalabenonensis Humbert ex Keraudren
+Begonia kalbreyeri (Oliv.) L.B. Sm. &amp; B.G. Schub.
+Begonia kaniensis Irmsch.
+Begonia karperi J.C. Arends
+Begonia karwinskyana A. DC.
+Begonia kasutensis K.G.Pearce
+Begonia kautskyana Handro
+Begonia keeana Kiew
+Begonia keithii Kiew
+Begonia kellermanii C. DC.
+Begonia kelliana Irmsch.
+Begonia keniensis Gilg ex Engl.
+Begonia kennedyi F.A. Barkley &amp; Golding
+Begonia kenworthyae Ziesenh.
+Begonia keraudremae Pinner &amp; al
+Begonia keraudrenae Bosser
+Begonia kerrii Craib
+Begonia kerstingii Irmsch.
+Begonia khasiana C.B. Clarke
+Begonia kiamfeei Kiew &amp; S.Julia
+Begonia killipiana L.B. Sm. &amp; B.G. Schub.
+Begonia kimusiana C. Chev.
+Begonia kinabaluensis Sands
+Begonia kingdon-wardii Tebbitt
+Begonia kingiana Irmsch.
+Begonia kisuluana Büttner
+Begonia klainei Pierre ex Pellegr.
+Begonia klemmei Merr.
+Begonia klossii Ridl.
+Begonia knoopii Ziesenh.
+Begonia koksunii Kiew
+Begonia komoensis Irmsch.
+Begonia konder-reisiana L.B. Sm. &amp; R.C. Sm.
+Begonia koordersii Warb. ex Koord.
+Begonia kortsiae Ziesenh.
+Begonia kotoensis Hayata
+Begonia kouytcheouensis Guill.
+Begonia kraussiantha Irmsch.
+Begonia kribensis Engl.
+Begonia krystofii Halda
+Begonia kuhlmannii Brade
+Begonia kui C.I Peng
+Begonia kummerae Gilg
+Begonia kunstleriana King
+Begonia kunthiana Walp.
+Begonia labiensis Sands
+Begonia labomaculata C. DC.
+Begonia labordei H. Lév.
+Begonia laccophora Sands
+Begonia lacera Merr.
+Begonia lacerata Irmsch.
+Begonia lachaoensis Ziesenh.
+Begonia laciniata Roxb.
+Begonia laciniosa A. DC.
+Begonia lacunosa Warb.
+Begonia lacustris Irmsch. ex Peekel
+Begonia laetvirides Gilg ex E. Carrell
+Begonia laevis Ridl.
+Begonia lagunensis Elmer
+Begonia lailana Kiew &amp; Geri
+Begonia lambii Kiew
+Begonia laminariae Irmsch.
+Begonia lanata Linden &amp; Rodigas
+Begonia lancangensis S.H. Huang
+Begonia lanceolata Vell.
+Begonia lancifolia Merr.
+Begonia lancilimba Merr.
+Begonia langbianensis Baker f.
+Begonia langsdorffii A. DC.
+Begonia lansbergeae Linden &amp; Rodigas
+Begonia lanstyakii Brade
+Begonia lantanaefolia A. DC.
+Begonia lanternaria Irmsch.
+Begonia lanuginosa A. DC.
+Begonia lapistipula Engl.
+Begonia laporteifolia Warb.
+Begonia larorum L.B. Sm. &amp; Wassh.
+Begonia lateralis Elmer ex Merr.
+Begonia latipetiolata Irmsch.
+Begonia latistipula Merr.
+Begonia laurina hort. ex A. DC.
+Begonia lauterbachii Warb.
+Begonia laxa L.B. Sm. &amp; B.G. Schub.
+Begonia layang-layang Kiew
+Begonia lazat Kiew &amp; Reza
+Begonia lazuli Linden
+Begonia lealii Brade
+Begonia leandrii Humbert ex Keraudren &amp; Bosser
+Begonia leathermaniae O'Reilly &amp; Kareg.
+Begonia lebrunii Robyns &amp; Lawalrée
+Begonia lecomtei Gagnep.
+Begonia ledermannii Irmsch.
+Begonia lehmannii (Irmsch.) L.B. Sm. &amp; B.G. Schub.
+Begonia lehmbachii Warb.
+Begonia leichtiana Irmsch. ex Sosef
+Begonia leivae J. Sierra
+Begonia lemaoutii #hort. ex Vallerand
+Begonia lemurica Keraudren
+Begonia lengguanii Kiew
+Begonia leopoldinensis L. Kollmann
+Begonia lepida Blume
+Begonia lepidella Ridl.
+Begonia lepidota Liebm.
+Begonia leprosa Hance
+Begonia leptantha C.B. Rob.
+Begonia leptophylla Taub.
+Begonia leptopoda C. DC.
+Begonia leptoptera Hara
+Begonia leptostyla Irmsch.
+Begonia leptotricha C. DC.
+Begonia letestui J.J. de Wilde
+Begonia lethomasiae R. Wilczek
+Begonia letouzeyi Sosef
+Begonia leucantha Ridl.
+Begonia leucochlora Sands
+Begonia leuconeura Urb. &amp; Ekman
+Begonia leucosticta Warb.
+Begonia leucostricta Warb.
+Begonia leucotricha Sandst.
+Begonia leytensis Elmer
+Begonia l</t>
         </is>
       </c>
     </row>
